--- a/testeXML/Excel/De-Para_Loreal_Modelo.xlsx
+++ b/testeXML/Excel/De-Para_Loreal_Modelo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infis001061\Documents\Roberto\Projetos\TesteArquivoXML\testeXML\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498ED0DF-0352-424B-B00A-F805C43E394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5355CC1-9C64-4177-A20E-CA9540E41E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" tabRatio="404"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Interfreight (2)" sheetId="9" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Consulta de PostgreSQL35W1" type="1" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Consulta de PostgreSQL35W1" type="1" refreshedVersion="4" background="1" saveData="1">
     <dbPr connection="DSN=PostgreSQL35W;DATABASE=ifreight;SERVER=192.168.22.9;PORT=5432;UID=postgres;SSLmode=disable;ReadOnly=0;Protocol=7.4;FakeOidIndex=0;ShowOidColumn=0;RowVersioning=0;ShowSystemTables=0;Fetch=100;UnknownSizes=0;MaxVarcharSize=255;MaxLongVarcharSize=8190;Debug=0;CommLog=0;UseDeclareFetch=0;TextAsLongVarchar=1;UnknownsAsLongVarchar=0;BoolsAsChar=1;Parse=0;ExtraSysTablePrefixes=;LFConversion=1;UpdatableCursors=1;TrueIsMinus1=0;BI=0;ByteaAsLongVarBinary=1;UseServerSidePrepare=1;LowerCaseIdentifier=0;XaOpt=1" command="SELECT _x000d__x000a_grupocliente.nmgrupocliente as &quot;GRUPO&quot;,_x000d__x000a_importador.cnpj AS &quot;CNPJ&quot;,_x000d__x000a_importador.appessoa as &quot;CLIENTE&quot; ,_x000d__x000a_date(DICAPA.dtregistrodi) AS &quot;DT. REGISTRO&quot; ,_x000d__x000a_PROCESSO.NRPROCESSO AS &quot;PROCESSO&quot;,_x000d__x000a_dicapa.nrdeclaracaoimportacao AS &quot;NRDI&quot;,_x000d__x000a_PROCESSO.NRREFAUXILIAR AS &quot;PO&quot;,_x000d__x000a_processo.nrconhecmaster as &quot;CONHECIMENTO MASTER&quot;,_x000d__x000a_PROCESSO.nrconhecimento AS &quot;CONHECIMENTO HOUSE&quot;,_x000d__x000a_date(PROCESSO.dtembarque)  AS &quot;DT. EMBARQUE&quot;,_x000d__x000a_diadicao.nradicao  AS &quot;ADICAO&quot;,_x000d__x000a_viatransporte.nmviatransporte  AS &quot;VIATRANS&quot;,_x000d__x000a_AREA.NMAREA AS &quot;DESTINACAO&quot;,_x000d__x000a_diadicao.vlcifmnac  AS &quot;VALORADUANEIRO&quot;,_x000d__x000a_DIADICAO.vltaxasiscomexadicao AS &quot;VL. DESP. ADUANEIRA&quot;,_x000d__x000a_diadicao.vlaliqii  AS &quot;ALIQII&quot;,_x000d__x000a_diadicao.vlaliqipi  AS &quot;ALIQIPI&quot;,_x000d__x000a_diadicao.vlaliqpis  AS &quot;ALIPIS&quot;,_x000d__x000a_DIADICAO.vlaliqcofins   AS &quot;ALIQCOFINS&quot;,_x000d__x000a_diadicao.vlaliqicms   AS &quot;ALIQICMS&quot;,_x000d__x000a_diadicao.vlpisdevido   AS &quot;VL.PIS&quot;,_x000d__x000a_diadicao.vlcofinsdevido AS &quot;VL.COFINS&quot;,_x000d__x000a_diadicao.vliidevido AS &quot;VL.II&quot;,_x000d__x000a_diadicao.vlipidevido AS &quot;VL.IPI&quot;,_x000d__x000a_diadicao.vlicmsdevido AS &quot;VL.ICMS&quot;,_x000d__x000a_diadicao.vltotaldespesasbaseicms AS &quot;VL.AFRMM&quot;,_x000d__x000a_PROCESSO.observacaogeral AS &quot;VL.OBSERVACAO&quot;_x000d__x000a_FROM PROCESSO_x000d__x000a_LEFT OUTER JOIN DICAPA ON (PROCESSO.IDPROCESSO = DICAPA.IDPROCESSO)_x000d__x000a_LEFT OUTER JOIN PESSOA IMPORTADOR ON (PROCESSO.IDPESSOACLIENTE = IMPORTADOR.IDPESSOA)_x000d__x000a_LEFT OUTER JOIN grupocliente ON (IMPORTADOR.idgrupocliente = grupocliente.idgrupocliente)_x000d__x000a_LEFT OUTER JOIN diadicao ON (dicapa.idprocesso = DIADICAO.idprocesso)_x000d__x000a_LEFT OUTER JOIN viatransporte ON (PROCESSO.idviatransporte = viatransporte.idviatransporte)_x000d__x000a_LEFT OUTER JOIN area ON (PROCESSO.idarea = AREA.idarea)_x000d__x000a_WHERE_x000d__x000a_(DICAPA.dtregistrodi IS NOT NULL)_x000d__x000a_--AND (PROCESSO.NRPROCESSO = '1603')_x000d__x000a_--AND (grupocliente.nmgrupocliente = '')_x000d__x000a_AND (date(DICAPA.dtregistrodi) BETWEEN '25/03/2019' AND '25/03/2019')_x000d__x000a_ORDER BY PROCESSO.nrprocesso, diadicao.nradicao"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="232">
   <si>
     <t>PLANILHA PARA CÁLCULO DO CUSTO DAS IMPORTAÇÕES</t>
   </si>
@@ -797,24 +797,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_(&quot;Cr$&quot;\ * #,##0.00_);_(&quot;Cr$&quot;\ * \(#,##0.00\);_(&quot;Cr$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ _R_$_-;\-* #,##0\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;????_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.0000\ _R_$_-;\-* #,##0.0000\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;Cr$&quot;\ * #,##0.00_);_(&quot;Cr$&quot;\ * \(#,##0.00\);_(&quot;Cr$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0\ _R_$_-;\-* #,##0\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.0000\ _R_$_-;\-* #,##0.0000\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1599,9 +1599,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1614,79 +1614,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,7 +1711,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1721,26 +1721,26 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,52 +1753,52 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,123 +1813,123 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="24" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="24" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="172" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="25" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="26" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,11 +1941,11 @@
     <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,42 +1954,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1998,17 +1998,17 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2024,27 +2024,27 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="32" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="32" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2053,26 +2053,26 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="186" fontId="28" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="28" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="28" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="28" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="186" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,15 +2084,15 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="28" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="28" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="28" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2102,7 +2102,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2112,32 +2112,26 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2148,13 +2142,40 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2167,40 +2188,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2212,86 +2209,103 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2299,64 +2313,130 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2368,65 +2448,172 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2455,320 +2642,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="15" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2780,19 +2780,7 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2809,7 +2797,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2841,7 +2829,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2877,7 +2865,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2898,7 +2886,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2921,7 +2909,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2938,7 +2926,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2955,7 +2943,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2972,7 +2960,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2995,7 +2983,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3012,7 +3000,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3029,7 +3017,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3158,7 +3146,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3192,7 +3180,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="186" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="175" formatCode="&quot;R$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3469,6 +3457,18 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3551,7 +3551,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Consulta de PostgreSQL35W" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Consulta de PostgreSQL35W" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="73" unboundColumnsRight="6">
     <queryTableFields count="32">
       <queryTableField id="27" name="GRUPO" tableColumnId="1"/>
@@ -3596,49 +3596,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="Tabela_Consulta_de_PostgreSQL35W71" displayName="Tabela_Consulta_de_PostgreSQL35W71" ref="A2:AF10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:AF10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela_Consulta_de_PostgreSQL35W71" displayName="Tabela_Consulta_de_PostgreSQL35W71" ref="A2:AF10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A2:AF10" xr:uid="{00000000-0009-0000-0100-000046000000}"/>
   <tableColumns count="32">
-    <tableColumn id="1" uniqueName="1" name="GRUPO" queryTableFieldId="27" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="CNPJ" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="29" uniqueName="29" name="DT. REGISTRO" queryTableFieldId="38" dataDxfId="30"/>
-    <tableColumn id="30" uniqueName="30" name="PROCESSO" queryTableFieldId="39" dataDxfId="29"/>
-    <tableColumn id="31" uniqueName="31" name="NRDI" queryTableFieldId="40" dataDxfId="28"/>
-    <tableColumn id="32" uniqueName="32" name="PO" queryTableFieldId="41" dataDxfId="27"/>
-    <tableColumn id="8" uniqueName="8" name="CONHECIMENTO MASTER" queryTableFieldId="31" dataDxfId="26"/>
-    <tableColumn id="27" uniqueName="27" name="CONHECIMENTO HOUSE= CONHECIMENTO DE CARGA" queryTableFieldId="32" dataDxfId="25"/>
-    <tableColumn id="33" uniqueName="33" name="DT. EMBARQUE" queryTableFieldId="42" dataDxfId="24"/>
-    <tableColumn id="34" uniqueName="34" name="ADICAO" queryTableFieldId="43" dataDxfId="23"/>
-    <tableColumn id="35" uniqueName="35" name="VIATRANS" queryTableFieldId="44" dataDxfId="22"/>
-    <tableColumn id="28" uniqueName="28" name="DESTINACAO" queryTableFieldId="35" dataDxfId="21"/>
-    <tableColumn id="3" uniqueName="3" name="CLIENTE" queryTableFieldId="29" dataDxfId="20"/>
-    <tableColumn id="36" uniqueName="36" name="VALORADUANEIRO" queryTableFieldId="45" dataDxfId="19" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="37" uniqueName="37" name="VL. DESP. ADUANEIRA" queryTableFieldId="46" dataDxfId="18" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="38" uniqueName="38" name="ALIQII" queryTableFieldId="47" dataDxfId="17"/>
-    <tableColumn id="39" uniqueName="39" name="ALIQIPI" queryTableFieldId="48" dataDxfId="16"/>
-    <tableColumn id="40" uniqueName="40" name="ALIPIS" queryTableFieldId="49" dataDxfId="15"/>
-    <tableColumn id="41" uniqueName="41" name="ALIQCOFINS" queryTableFieldId="50" dataDxfId="14"/>
-    <tableColumn id="42" uniqueName="42" name="ALIQICMS" queryTableFieldId="51" dataDxfId="13"/>
-    <tableColumn id="43" uniqueName="43" name="VL.PIS" queryTableFieldId="52" dataDxfId="12" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="44" uniqueName="44" name="VL.COFINS" queryTableFieldId="53" dataDxfId="11" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="45" uniqueName="45" name="VL.II" queryTableFieldId="54" dataDxfId="10" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="46" uniqueName="46" name="VL.IPI" queryTableFieldId="55" dataDxfId="9" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="47" uniqueName="47" name="VL.ICMS" queryTableFieldId="56" dataDxfId="8" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="48" uniqueName="48" name="VL.AFRMM" queryTableFieldId="57" dataDxfId="7" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="51" uniqueName="51" name="VL.OBSERVACAO DESP ACESS SAP" queryTableFieldId="67" dataDxfId="6" dataCellStyle="Moeda [0]">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="GRUPO" queryTableFieldId="27" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="CNPJ" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="DT. REGISTRO" queryTableFieldId="38" dataDxfId="29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="PROCESSO" queryTableFieldId="39" dataDxfId="28"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="NRDI" queryTableFieldId="40" dataDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="PO" queryTableFieldId="41" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="CONHECIMENTO MASTER" queryTableFieldId="31" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="CONHECIMENTO HOUSE= CONHECIMENTO DE CARGA" queryTableFieldId="32" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="DT. EMBARQUE" queryTableFieldId="42" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="ADICAO" queryTableFieldId="43" dataDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="VIATRANS" queryTableFieldId="44" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="DESTINACAO" queryTableFieldId="35" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="CLIENTE" queryTableFieldId="29" dataDxfId="19"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="VALORADUANEIRO" queryTableFieldId="45" dataDxfId="18"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="VL. DESP. ADUANEIRA" queryTableFieldId="46" dataDxfId="17"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="ALIQII" queryTableFieldId="47" dataDxfId="16"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="ALIQIPI" queryTableFieldId="48" dataDxfId="15"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="ALIPIS" queryTableFieldId="49" dataDxfId="14"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="ALIQCOFINS" queryTableFieldId="50" dataDxfId="13"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="ALIQICMS" queryTableFieldId="51" dataDxfId="12"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="VL.PIS" queryTableFieldId="52" dataDxfId="11"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="VL.COFINS" queryTableFieldId="53" dataDxfId="10"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="VL.II" queryTableFieldId="54" dataDxfId="9"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="VL.IPI" queryTableFieldId="55" dataDxfId="8"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="VL.ICMS" queryTableFieldId="56" dataDxfId="7"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="VL.AFRMM" queryTableFieldId="57" dataDxfId="6"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="VL.OBSERVACAO DESP ACESS SAP" queryTableFieldId="67" dataDxfId="5">
       <calculatedColumnFormula>O3+U3+V3+AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="TOTAL  ICMS DI" queryTableFieldId="68" dataDxfId="5" dataCellStyle="Moeda [0]"/>
-    <tableColumn id="7" uniqueName="7" name="ICMS" queryTableFieldId="71" dataDxfId="4" dataCellStyle="Moeda [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="TOTAL  ICMS DI" queryTableFieldId="68" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="ICMS" queryTableFieldId="71" dataDxfId="3">
       <calculatedColumnFormula>AE3*(T3-2)%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" uniqueName="9" name="FECP" queryTableFieldId="72" dataDxfId="3" dataCellStyle="Moeda [0]">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="FECP" queryTableFieldId="72" dataDxfId="2">
       <calculatedColumnFormula>AE3*2%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="BASE icms" queryTableFieldId="69" dataDxfId="2" dataCellStyle="Moeda [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="BASE icms" queryTableFieldId="69" dataDxfId="1">
       <calculatedColumnFormula>N3+O3+U3+V3+W3+X3+AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="Base IPI" queryTableFieldId="70" dataDxfId="1" dataCellStyle="Moeda [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Base IPI" queryTableFieldId="70" dataDxfId="0">
       <calculatedColumnFormula>N3+W3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3966,14 +3966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4711,10 +4711,8 @@
       <c r="Y14" s="204"/>
       <c r="Z14" s="204"/>
     </row>
-    <row r="15" spans="1:32" s="203" customFormat="1" ht="382.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="257" t="s">
-        <v>228</v>
-      </c>
+    <row r="15" spans="1:32" s="203" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="257"/>
       <c r="E15" s="217"/>
       <c r="G15" s="218"/>
       <c r="H15" s="219"/>
@@ -4832,12 +4830,10 @@
       <c r="AE19" s="203"/>
       <c r="AF19" s="203"/>
     </row>
-    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="203"/>
       <c r="B20" s="203"/>
-      <c r="C20" s="258" t="s">
-        <v>229</v>
-      </c>
+      <c r="C20" s="258"/>
       <c r="D20" s="203"/>
       <c r="E20" s="217"/>
       <c r="F20" s="203"/>
@@ -4868,12 +4864,10 @@
       <c r="AE20" s="203"/>
       <c r="AF20" s="203"/>
     </row>
-    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="203"/>
       <c r="B21" s="203"/>
-      <c r="C21" s="258" t="s">
-        <v>230</v>
-      </c>
+      <c r="C21" s="258"/>
       <c r="D21" s="203"/>
       <c r="E21" s="217"/>
       <c r="F21" s="203"/>
@@ -5071,7 +5065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5135,41 +5129,41 @@
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="275"/>
-      <c r="U2" s="275"/>
-      <c r="V2" s="275"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="275"/>
-      <c r="Y2" s="275"/>
-      <c r="Z2" s="275"/>
-      <c r="AA2" s="275"/>
-      <c r="AB2" s="275"/>
-      <c r="AC2" s="275"/>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="275"/>
-      <c r="AG2" s="275"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="282"/>
+      <c r="U2" s="282"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="282"/>
+      <c r="X2" s="282"/>
+      <c r="Y2" s="282"/>
+      <c r="Z2" s="282"/>
+      <c r="AA2" s="282"/>
+      <c r="AB2" s="282"/>
+      <c r="AC2" s="282"/>
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="282"/>
+      <c r="AG2" s="282"/>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -5207,13 +5201,13 @@
       <c r="AG3" s="15"/>
     </row>
     <row r="4" spans="1:33" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="276" t="s">
+      <c r="A4" s="283" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -5244,12 +5238,12 @@
       <c r="AG4" s="15"/>
     </row>
     <row r="5" spans="1:33" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="277"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
+      <c r="A5" s="284"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="100"/>
       <c r="H5" s="100"/>
       <c r="I5" s="108"/>
@@ -5279,12 +5273,12 @@
       <c r="AG5" s="15"/>
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="262"/>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
       <c r="I6" s="108"/>
@@ -5338,15 +5332,15 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="287" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
+      <c r="B8" s="287"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
       <c r="H8" s="17"/>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
@@ -5466,50 +5460,50 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="284" t="s">
+      <c r="A10" s="275" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="281" t="s">
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="282"/>
-      <c r="J10" s="282"/>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="282"/>
-      <c r="P10" s="282"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="282"/>
-      <c r="S10" s="282"/>
-      <c r="T10" s="282"/>
-      <c r="U10" s="282"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="282"/>
-      <c r="X10" s="282"/>
-      <c r="Y10" s="282"/>
-      <c r="Z10" s="282"/>
-      <c r="AA10" s="282"/>
-      <c r="AB10" s="282"/>
-      <c r="AC10" s="282"/>
-      <c r="AD10" s="282"/>
-      <c r="AE10" s="282"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="283"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="277"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="277"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="278"/>
     </row>
     <row r="11" spans="1:33" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="279" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="286"/>
-      <c r="C11" s="287"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="281"/>
       <c r="D11" s="105" t="s">
         <v>224</v>
       </c>
@@ -7520,22 +7514,22 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="269" t="s">
+      <c r="A34" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="270"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="272" t="s">
+      <c r="B34" s="268"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="273"/>
-      <c r="I34" s="273"/>
-      <c r="J34" s="273"/>
-      <c r="K34" s="273"/>
-      <c r="L34" s="274"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="271"/>
+      <c r="H34" s="271"/>
+      <c r="I34" s="271"/>
+      <c r="J34" s="271"/>
+      <c r="K34" s="271"/>
+      <c r="L34" s="272"/>
       <c r="M34" s="173" t="e">
         <f>SUM(M11:M33)</f>
         <v>#VALUE!</v>
@@ -7544,8 +7538,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O34" s="264"/>
-      <c r="P34" s="265"/>
+      <c r="O34" s="273"/>
+      <c r="P34" s="274"/>
       <c r="Q34" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -7577,14 +7571,14 @@
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="AA34" s="264"/>
-      <c r="AB34" s="265"/>
+      <c r="AA34" s="273"/>
+      <c r="AB34" s="274"/>
       <c r="AC34" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="AD34" s="264"/>
-      <c r="AE34" s="265"/>
+      <c r="AD34" s="273"/>
+      <c r="AE34" s="274"/>
       <c r="AF34" s="173" t="e">
         <f>SUM(AF11:AF33)</f>
         <v>#REF!</v>
@@ -7697,38 +7691,38 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="266" t="s">
+      <c r="D36" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="267"/>
-      <c r="J36" s="267"/>
-      <c r="K36" s="267"/>
-      <c r="L36" s="267"/>
-      <c r="M36" s="267"/>
-      <c r="N36" s="267"/>
-      <c r="O36" s="267"/>
-      <c r="P36" s="267"/>
-      <c r="Q36" s="267"/>
-      <c r="R36" s="267"/>
-      <c r="S36" s="267"/>
-      <c r="T36" s="267"/>
-      <c r="U36" s="267"/>
-      <c r="V36" s="267"/>
-      <c r="W36" s="267"/>
-      <c r="X36" s="267"/>
-      <c r="Y36" s="267"/>
-      <c r="Z36" s="267"/>
-      <c r="AA36" s="267"/>
-      <c r="AB36" s="267"/>
-      <c r="AC36" s="267"/>
-      <c r="AD36" s="267"/>
-      <c r="AE36" s="267"/>
-      <c r="AF36" s="267"/>
-      <c r="AG36" s="268"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
+      <c r="H36" s="261"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="261"/>
+      <c r="K36" s="261"/>
+      <c r="L36" s="261"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="261"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="261"/>
+      <c r="R36" s="261"/>
+      <c r="S36" s="261"/>
+      <c r="T36" s="261"/>
+      <c r="U36" s="261"/>
+      <c r="V36" s="261"/>
+      <c r="W36" s="261"/>
+      <c r="X36" s="261"/>
+      <c r="Y36" s="261"/>
+      <c r="Z36" s="261"/>
+      <c r="AA36" s="261"/>
+      <c r="AB36" s="261"/>
+      <c r="AC36" s="261"/>
+      <c r="AD36" s="261"/>
+      <c r="AE36" s="261"/>
+      <c r="AF36" s="261"/>
+      <c r="AG36" s="262"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -8392,10 +8386,10 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="279" t="s">
+      <c r="A44" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="280"/>
+      <c r="B44" s="264"/>
       <c r="C44" s="171" t="e">
         <f>C29+C41</f>
         <v>#REF!</v>
@@ -9136,10 +9130,10 @@
       </c>
     </row>
     <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="260" t="s">
+      <c r="A52" s="265" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="261"/>
+      <c r="B52" s="266"/>
       <c r="C52" s="123"/>
       <c r="D52" s="165"/>
       <c r="E52" s="162"/>
@@ -9414,10 +9408,10 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="260" t="s">
+      <c r="A55" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="261"/>
+      <c r="B55" s="266"/>
       <c r="C55" s="123" t="e">
         <f>C52*$K$16/$L$16</f>
         <v>#VALUE!</v>
@@ -9779,22 +9773,22 @@
       </c>
     </row>
     <row r="59" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="269" t="s">
+      <c r="A59" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="270"/>
-      <c r="C59" s="271"/>
-      <c r="D59" s="272" t="s">
+      <c r="B59" s="268"/>
+      <c r="C59" s="269"/>
+      <c r="D59" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="273"/>
-      <c r="F59" s="273"/>
-      <c r="G59" s="273"/>
-      <c r="H59" s="273"/>
-      <c r="I59" s="273"/>
-      <c r="J59" s="273"/>
-      <c r="K59" s="273"/>
-      <c r="L59" s="274"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="271"/>
+      <c r="G59" s="271"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="271"/>
+      <c r="J59" s="271"/>
+      <c r="K59" s="271"/>
+      <c r="L59" s="272"/>
       <c r="M59" s="174" t="e">
         <f>SUM(M37:M58)</f>
         <v>#VALUE!</v>
@@ -9803,8 +9797,8 @@
         <f t="shared" ref="N59:AF59" si="25">SUM(N37:N58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O59" s="264"/>
-      <c r="P59" s="265"/>
+      <c r="O59" s="273"/>
+      <c r="P59" s="274"/>
       <c r="Q59" s="174" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
@@ -9839,14 +9833,14 @@
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AA59" s="264"/>
-      <c r="AB59" s="265"/>
+      <c r="AA59" s="273"/>
+      <c r="AB59" s="274"/>
       <c r="AC59" s="174" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="264"/>
-      <c r="AE59" s="265"/>
+      <c r="AD59" s="273"/>
+      <c r="AE59" s="274"/>
       <c r="AF59" s="174" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
@@ -39679,6 +39673,20 @@
     <protectedRange password="85AF" sqref="Q11:Q58" name="Range1"/>
   </protectedRanges>
   <mergeCells count="23">
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:AG10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="D36:AG36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A52:B52"/>
@@ -39688,20 +39696,6 @@
     <mergeCell ref="O59:P59"/>
     <mergeCell ref="AA59:AB59"/>
     <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:AG10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.2" right="0.32" top="0.37" bottom="0.28999999999999998" header="0.2" footer="0.27"/>
@@ -39714,7 +39708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -39758,2485 +39752,2485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290"/>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
-      <c r="T1" s="290"/>
-      <c r="U1" s="290"/>
-      <c r="V1" s="290"/>
-      <c r="W1" s="290"/>
-      <c r="X1" s="290"/>
-      <c r="Y1" s="290"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="290"/>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
-      <c r="AI1" s="290"/>
-      <c r="AJ1" s="290"/>
-      <c r="AK1" s="290"/>
-      <c r="AL1" s="290"/>
-      <c r="AM1" s="290"/>
-      <c r="AN1" s="290"/>
-      <c r="AO1" s="290"/>
-      <c r="AP1" s="290"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
+      <c r="T1" s="472"/>
+      <c r="U1" s="472"/>
+      <c r="V1" s="472"/>
+      <c r="W1" s="472"/>
+      <c r="X1" s="472"/>
+      <c r="Y1" s="472"/>
+      <c r="Z1" s="472"/>
+      <c r="AA1" s="472"/>
+      <c r="AB1" s="472"/>
+      <c r="AC1" s="472"/>
+      <c r="AD1" s="472"/>
+      <c r="AE1" s="472"/>
+      <c r="AF1" s="472"/>
+      <c r="AG1" s="472"/>
+      <c r="AH1" s="472"/>
+      <c r="AI1" s="472"/>
+      <c r="AJ1" s="472"/>
+      <c r="AK1" s="472"/>
+      <c r="AL1" s="472"/>
+      <c r="AM1" s="472"/>
+      <c r="AN1" s="472"/>
+      <c r="AO1" s="472"/>
+      <c r="AP1" s="472"/>
     </row>
     <row r="2" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="479" t="s">
+      <c r="A2" s="294" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
-      <c r="K2" s="480"/>
-      <c r="L2" s="480"/>
-      <c r="M2" s="480"/>
-      <c r="N2" s="480"/>
-      <c r="O2" s="480"/>
-      <c r="P2" s="480"/>
-      <c r="Q2" s="480"/>
-      <c r="R2" s="480"/>
-      <c r="S2" s="480"/>
-      <c r="T2" s="480"/>
-      <c r="U2" s="480"/>
-      <c r="V2" s="480"/>
-      <c r="W2" s="480"/>
-      <c r="X2" s="480"/>
-      <c r="Y2" s="480"/>
-      <c r="Z2" s="481" t="s">
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="295"/>
+      <c r="W2" s="295"/>
+      <c r="X2" s="295"/>
+      <c r="Y2" s="295"/>
+      <c r="Z2" s="296" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="481"/>
-      <c r="AB2" s="481"/>
-      <c r="AC2" s="481"/>
-      <c r="AD2" s="481"/>
-      <c r="AE2" s="481"/>
-      <c r="AF2" s="481"/>
-      <c r="AG2" s="481"/>
-      <c r="AH2" s="481"/>
-      <c r="AI2" s="481"/>
-      <c r="AJ2" s="482" t="s">
+      <c r="AA2" s="296"/>
+      <c r="AB2" s="296"/>
+      <c r="AC2" s="296"/>
+      <c r="AD2" s="296"/>
+      <c r="AE2" s="296"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="296"/>
+      <c r="AH2" s="296"/>
+      <c r="AI2" s="296"/>
+      <c r="AJ2" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="482"/>
-      <c r="AL2" s="482"/>
-      <c r="AM2" s="468" t="s">
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="AN2" s="468"/>
-      <c r="AO2" s="468"/>
-      <c r="AP2" s="469"/>
+      <c r="AN2" s="306"/>
+      <c r="AO2" s="306"/>
+      <c r="AP2" s="307"/>
       <c r="AQ2" s="95"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="470" t="s">
+      <c r="A3" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="471"/>
-      <c r="P3" s="471"/>
-      <c r="Q3" s="471"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="471"/>
-      <c r="T3" s="471"/>
-      <c r="U3" s="471"/>
-      <c r="V3" s="471"/>
-      <c r="W3" s="471"/>
-      <c r="X3" s="471"/>
-      <c r="Y3" s="472"/>
+      <c r="B3" s="308"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="308"/>
+      <c r="W3" s="308"/>
+      <c r="X3" s="308"/>
+      <c r="Y3" s="309"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="473" t="s">
+      <c r="AA3" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="317"/>
-      <c r="AC3" s="317"/>
-      <c r="AD3" s="474"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="311"/>
+      <c r="AD3" s="312"/>
       <c r="AE3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="473" t="s">
+      <c r="AF3" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="317"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="475"/>
-      <c r="AK3" s="475"/>
-      <c r="AL3" s="475"/>
-      <c r="AM3" s="475"/>
-      <c r="AN3" s="475"/>
-      <c r="AO3" s="475"/>
-      <c r="AP3" s="476"/>
+      <c r="AG3" s="311"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="298"/>
+      <c r="AK3" s="298"/>
+      <c r="AL3" s="298"/>
+      <c r="AM3" s="298"/>
+      <c r="AN3" s="298"/>
+      <c r="AO3" s="298"/>
+      <c r="AP3" s="299"/>
       <c r="AQ3" s="96"/>
     </row>
     <row r="4" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="477"/>
-      <c r="B4" s="478"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="478"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="478"/>
-      <c r="H4" s="478"/>
-      <c r="I4" s="478"/>
-      <c r="J4" s="478"/>
-      <c r="K4" s="478"/>
-      <c r="L4" s="478"/>
-      <c r="M4" s="478"/>
-      <c r="N4" s="478"/>
-      <c r="O4" s="478"/>
-      <c r="P4" s="478"/>
-      <c r="Q4" s="478"/>
-      <c r="R4" s="478"/>
-      <c r="S4" s="478"/>
-      <c r="T4" s="478"/>
-      <c r="U4" s="478"/>
-      <c r="V4" s="478"/>
-      <c r="W4" s="478"/>
-      <c r="X4" s="478"/>
-      <c r="Y4" s="478"/>
-      <c r="Z4" s="475"/>
-      <c r="AA4" s="475"/>
-      <c r="AB4" s="475"/>
-      <c r="AC4" s="475"/>
-      <c r="AD4" s="475"/>
-      <c r="AE4" s="475"/>
-      <c r="AF4" s="475"/>
-      <c r="AG4" s="475"/>
-      <c r="AH4" s="475"/>
-      <c r="AI4" s="475"/>
-      <c r="AJ4" s="475"/>
-      <c r="AK4" s="475" t="s">
+      <c r="A4" s="313"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
+      <c r="P4" s="314"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="314"/>
+      <c r="S4" s="314"/>
+      <c r="T4" s="314"/>
+      <c r="U4" s="314"/>
+      <c r="V4" s="314"/>
+      <c r="W4" s="314"/>
+      <c r="X4" s="314"/>
+      <c r="Y4" s="314"/>
+      <c r="Z4" s="298"/>
+      <c r="AA4" s="298"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="298"/>
+      <c r="AD4" s="298"/>
+      <c r="AE4" s="298"/>
+      <c r="AF4" s="298"/>
+      <c r="AG4" s="298"/>
+      <c r="AH4" s="298"/>
+      <c r="AI4" s="298"/>
+      <c r="AJ4" s="298"/>
+      <c r="AK4" s="298" t="s">
         <v>63</v>
       </c>
-      <c r="AL4" s="475"/>
-      <c r="AM4" s="475"/>
-      <c r="AN4" s="475"/>
-      <c r="AO4" s="475"/>
-      <c r="AP4" s="476"/>
+      <c r="AL4" s="298"/>
+      <c r="AM4" s="298"/>
+      <c r="AN4" s="298"/>
+      <c r="AO4" s="298"/>
+      <c r="AP4" s="299"/>
       <c r="AQ4" s="96"/>
     </row>
     <row r="5" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="477"/>
-      <c r="B5" s="478"/>
-      <c r="C5" s="478"/>
-      <c r="D5" s="478"/>
-      <c r="E5" s="478"/>
-      <c r="F5" s="478"/>
-      <c r="G5" s="478"/>
-      <c r="H5" s="478"/>
-      <c r="I5" s="478"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="478"/>
-      <c r="L5" s="478"/>
-      <c r="M5" s="478"/>
-      <c r="N5" s="478"/>
-      <c r="O5" s="478"/>
-      <c r="P5" s="478"/>
-      <c r="Q5" s="478"/>
-      <c r="R5" s="478"/>
-      <c r="S5" s="478"/>
-      <c r="T5" s="478"/>
-      <c r="U5" s="478"/>
-      <c r="V5" s="478"/>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
-      <c r="Y5" s="478"/>
-      <c r="Z5" s="475"/>
-      <c r="AA5" s="475"/>
-      <c r="AB5" s="475"/>
-      <c r="AC5" s="475"/>
-      <c r="AD5" s="442"/>
-      <c r="AE5" s="442"/>
-      <c r="AF5" s="442"/>
-      <c r="AG5" s="442"/>
-      <c r="AH5" s="442"/>
-      <c r="AI5" s="442"/>
-      <c r="AJ5" s="442"/>
-      <c r="AK5" s="475" t="s">
+      <c r="A5" s="313"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="314"/>
+      <c r="Q5" s="314"/>
+      <c r="R5" s="314"/>
+      <c r="S5" s="314"/>
+      <c r="T5" s="314"/>
+      <c r="U5" s="314"/>
+      <c r="V5" s="314"/>
+      <c r="W5" s="314"/>
+      <c r="X5" s="314"/>
+      <c r="Y5" s="314"/>
+      <c r="Z5" s="298"/>
+      <c r="AA5" s="298"/>
+      <c r="AB5" s="298"/>
+      <c r="AC5" s="298"/>
+      <c r="AD5" s="315"/>
+      <c r="AE5" s="315"/>
+      <c r="AF5" s="315"/>
+      <c r="AG5" s="315"/>
+      <c r="AH5" s="315"/>
+      <c r="AI5" s="315"/>
+      <c r="AJ5" s="315"/>
+      <c r="AK5" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="AL5" s="475"/>
-      <c r="AM5" s="475"/>
-      <c r="AN5" s="475"/>
-      <c r="AO5" s="475"/>
-      <c r="AP5" s="476"/>
+      <c r="AL5" s="298"/>
+      <c r="AM5" s="298"/>
+      <c r="AN5" s="298"/>
+      <c r="AO5" s="298"/>
+      <c r="AP5" s="299"/>
       <c r="AQ5" s="96"/>
     </row>
     <row r="6" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="477"/>
-      <c r="B6" s="478"/>
-      <c r="C6" s="478"/>
-      <c r="D6" s="478"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="478"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="478"/>
-      <c r="L6" s="478"/>
-      <c r="M6" s="478"/>
-      <c r="N6" s="478"/>
-      <c r="O6" s="478"/>
-      <c r="P6" s="478"/>
-      <c r="Q6" s="478"/>
-      <c r="R6" s="478"/>
-      <c r="S6" s="478"/>
-      <c r="T6" s="478"/>
-      <c r="U6" s="478"/>
-      <c r="V6" s="478"/>
-      <c r="W6" s="478"/>
-      <c r="X6" s="478"/>
-      <c r="Y6" s="478"/>
-      <c r="Z6" s="475"/>
-      <c r="AA6" s="475"/>
-      <c r="AB6" s="475"/>
-      <c r="AC6" s="475"/>
-      <c r="AD6" s="356" t="s">
+      <c r="A6" s="313"/>
+      <c r="B6" s="314"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="314"/>
+      <c r="H6" s="314"/>
+      <c r="I6" s="314"/>
+      <c r="J6" s="314"/>
+      <c r="K6" s="314"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="314"/>
+      <c r="P6" s="314"/>
+      <c r="Q6" s="314"/>
+      <c r="R6" s="314"/>
+      <c r="S6" s="314"/>
+      <c r="T6" s="314"/>
+      <c r="U6" s="314"/>
+      <c r="V6" s="314"/>
+      <c r="W6" s="314"/>
+      <c r="X6" s="314"/>
+      <c r="Y6" s="314"/>
+      <c r="Z6" s="298"/>
+      <c r="AA6" s="298"/>
+      <c r="AB6" s="298"/>
+      <c r="AC6" s="298"/>
+      <c r="AD6" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="358"/>
-      <c r="AF6" s="358"/>
-      <c r="AG6" s="358"/>
-      <c r="AH6" s="358"/>
-      <c r="AI6" s="358"/>
-      <c r="AJ6" s="357"/>
-      <c r="AK6" s="483" t="s">
+      <c r="AE6" s="301"/>
+      <c r="AF6" s="301"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="301"/>
+      <c r="AI6" s="301"/>
+      <c r="AJ6" s="302"/>
+      <c r="AK6" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="AL6" s="475"/>
-      <c r="AM6" s="475"/>
-      <c r="AN6" s="475"/>
-      <c r="AO6" s="475"/>
-      <c r="AP6" s="476"/>
+      <c r="AL6" s="298"/>
+      <c r="AM6" s="298"/>
+      <c r="AN6" s="298"/>
+      <c r="AO6" s="298"/>
+      <c r="AP6" s="299"/>
       <c r="AQ6" s="96"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="470"/>
-      <c r="B7" s="484"/>
-      <c r="C7" s="484"/>
-      <c r="D7" s="484"/>
-      <c r="E7" s="484"/>
-      <c r="F7" s="484"/>
-      <c r="G7" s="484"/>
-      <c r="H7" s="484"/>
-      <c r="I7" s="484"/>
-      <c r="J7" s="484"/>
-      <c r="K7" s="484"/>
-      <c r="L7" s="484"/>
-      <c r="M7" s="484"/>
-      <c r="N7" s="484"/>
-      <c r="O7" s="484"/>
-      <c r="P7" s="484"/>
-      <c r="Q7" s="484"/>
-      <c r="R7" s="484"/>
-      <c r="S7" s="484"/>
-      <c r="T7" s="484"/>
-      <c r="U7" s="484"/>
-      <c r="V7" s="484"/>
-      <c r="W7" s="484"/>
-      <c r="X7" s="484"/>
-      <c r="Y7" s="484"/>
-      <c r="Z7" s="475"/>
-      <c r="AA7" s="475"/>
-      <c r="AB7" s="475"/>
-      <c r="AC7" s="475"/>
-      <c r="AD7" s="462" t="s">
+      <c r="A7" s="304"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="305"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="305"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="305"/>
+      <c r="X7" s="305"/>
+      <c r="Y7" s="305"/>
+      <c r="Z7" s="298"/>
+      <c r="AA7" s="298"/>
+      <c r="AB7" s="298"/>
+      <c r="AC7" s="298"/>
+      <c r="AD7" s="316" t="s">
         <v>144</v>
       </c>
-      <c r="AE7" s="463"/>
-      <c r="AF7" s="463"/>
-      <c r="AG7" s="463"/>
-      <c r="AH7" s="463"/>
-      <c r="AI7" s="463"/>
-      <c r="AJ7" s="464"/>
-      <c r="AK7" s="465">
+      <c r="AE7" s="317"/>
+      <c r="AF7" s="317"/>
+      <c r="AG7" s="317"/>
+      <c r="AH7" s="317"/>
+      <c r="AI7" s="317"/>
+      <c r="AJ7" s="318"/>
+      <c r="AK7" s="319">
         <f ca="1">TODAY()</f>
-        <v>44613</v>
-      </c>
-      <c r="AL7" s="466"/>
-      <c r="AM7" s="466"/>
-      <c r="AN7" s="466"/>
-      <c r="AO7" s="466"/>
-      <c r="AP7" s="467"/>
+        <v>44615</v>
+      </c>
+      <c r="AL7" s="320"/>
+      <c r="AM7" s="320"/>
+      <c r="AN7" s="320"/>
+      <c r="AO7" s="320"/>
+      <c r="AP7" s="321"/>
       <c r="AQ7" s="96"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" s="382" t="s">
+      <c r="A8" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="354"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="354"/>
-      <c r="F8" s="354"/>
-      <c r="G8" s="354"/>
-      <c r="H8" s="354"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="354"/>
-      <c r="K8" s="354"/>
-      <c r="L8" s="355"/>
-      <c r="M8" s="356" t="s">
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="323"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="300" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="357"/>
-      <c r="O8" s="356" t="s">
+      <c r="N8" s="302"/>
+      <c r="O8" s="300" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="358"/>
-      <c r="Q8" s="358"/>
-      <c r="R8" s="358"/>
-      <c r="S8" s="358"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="358"/>
-      <c r="V8" s="358"/>
-      <c r="W8" s="358"/>
-      <c r="X8" s="358"/>
-      <c r="Y8" s="358"/>
-      <c r="Z8" s="358"/>
-      <c r="AA8" s="358"/>
-      <c r="AB8" s="358"/>
-      <c r="AC8" s="357"/>
-      <c r="AD8" s="356" t="s">
+      <c r="P8" s="301"/>
+      <c r="Q8" s="301"/>
+      <c r="R8" s="301"/>
+      <c r="S8" s="301"/>
+      <c r="T8" s="301"/>
+      <c r="U8" s="301"/>
+      <c r="V8" s="301"/>
+      <c r="W8" s="301"/>
+      <c r="X8" s="301"/>
+      <c r="Y8" s="301"/>
+      <c r="Z8" s="301"/>
+      <c r="AA8" s="301"/>
+      <c r="AB8" s="301"/>
+      <c r="AC8" s="302"/>
+      <c r="AD8" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AE8" s="358"/>
-      <c r="AF8" s="358"/>
-      <c r="AG8" s="358"/>
-      <c r="AH8" s="358"/>
-      <c r="AI8" s="358"/>
-      <c r="AJ8" s="357"/>
-      <c r="AK8" s="449" t="s">
+      <c r="AE8" s="301"/>
+      <c r="AF8" s="301"/>
+      <c r="AG8" s="301"/>
+      <c r="AH8" s="301"/>
+      <c r="AI8" s="301"/>
+      <c r="AJ8" s="302"/>
+      <c r="AK8" s="325" t="s">
         <v>67</v>
       </c>
-      <c r="AL8" s="449"/>
-      <c r="AM8" s="449"/>
-      <c r="AN8" s="449"/>
-      <c r="AO8" s="449"/>
-      <c r="AP8" s="450"/>
+      <c r="AL8" s="325"/>
+      <c r="AM8" s="325"/>
+      <c r="AN8" s="325"/>
+      <c r="AO8" s="325"/>
+      <c r="AP8" s="326"/>
       <c r="AQ8" s="96"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" s="444"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="380"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="380"/>
-      <c r="K9" s="380"/>
-      <c r="L9" s="440"/>
-      <c r="M9" s="445"/>
-      <c r="N9" s="457"/>
-      <c r="O9" s="446"/>
-      <c r="P9" s="442"/>
-      <c r="Q9" s="442"/>
-      <c r="R9" s="442"/>
-      <c r="S9" s="442"/>
-      <c r="T9" s="442"/>
-      <c r="U9" s="442"/>
-      <c r="V9" s="442"/>
-      <c r="W9" s="442"/>
-      <c r="X9" s="442"/>
-      <c r="Y9" s="442"/>
-      <c r="Z9" s="442"/>
-      <c r="AA9" s="442"/>
-      <c r="AB9" s="442"/>
-      <c r="AC9" s="458"/>
-      <c r="AD9" s="459"/>
-      <c r="AE9" s="460"/>
-      <c r="AF9" s="460"/>
-      <c r="AG9" s="460"/>
-      <c r="AH9" s="460"/>
-      <c r="AI9" s="460"/>
-      <c r="AJ9" s="461"/>
-      <c r="AK9" s="449" t="s">
+      <c r="A9" s="336"/>
+      <c r="B9" s="337"/>
+      <c r="C9" s="337"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="338"/>
+      <c r="M9" s="339"/>
+      <c r="N9" s="340"/>
+      <c r="O9" s="341"/>
+      <c r="P9" s="315"/>
+      <c r="Q9" s="315"/>
+      <c r="R9" s="315"/>
+      <c r="S9" s="315"/>
+      <c r="T9" s="315"/>
+      <c r="U9" s="315"/>
+      <c r="V9" s="315"/>
+      <c r="W9" s="315"/>
+      <c r="X9" s="315"/>
+      <c r="Y9" s="315"/>
+      <c r="Z9" s="315"/>
+      <c r="AA9" s="315"/>
+      <c r="AB9" s="315"/>
+      <c r="AC9" s="342"/>
+      <c r="AD9" s="343"/>
+      <c r="AE9" s="344"/>
+      <c r="AF9" s="344"/>
+      <c r="AG9" s="344"/>
+      <c r="AH9" s="344"/>
+      <c r="AI9" s="344"/>
+      <c r="AJ9" s="345"/>
+      <c r="AK9" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="AL9" s="449"/>
-      <c r="AM9" s="449"/>
-      <c r="AN9" s="449"/>
-      <c r="AO9" s="449"/>
-      <c r="AP9" s="450"/>
+      <c r="AL9" s="325"/>
+      <c r="AM9" s="325"/>
+      <c r="AN9" s="325"/>
+      <c r="AO9" s="325"/>
+      <c r="AP9" s="326"/>
       <c r="AQ9" s="96"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" s="321" t="s">
+      <c r="A10" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="322"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="322"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="322"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="322"/>
-      <c r="L10" s="322"/>
-      <c r="M10" s="322"/>
-      <c r="N10" s="322"/>
-      <c r="O10" s="322"/>
-      <c r="P10" s="322"/>
-      <c r="Q10" s="322"/>
-      <c r="R10" s="322"/>
-      <c r="S10" s="322"/>
-      <c r="T10" s="322"/>
-      <c r="U10" s="322"/>
-      <c r="V10" s="322"/>
-      <c r="W10" s="322"/>
-      <c r="X10" s="322"/>
-      <c r="Y10" s="322"/>
-      <c r="Z10" s="322"/>
-      <c r="AA10" s="322"/>
-      <c r="AB10" s="322"/>
-      <c r="AC10" s="322"/>
-      <c r="AD10" s="322"/>
-      <c r="AE10" s="322"/>
-      <c r="AF10" s="322"/>
-      <c r="AG10" s="322"/>
-      <c r="AH10" s="322"/>
-      <c r="AI10" s="322"/>
-      <c r="AJ10" s="322"/>
-      <c r="AK10" s="449" t="s">
+      <c r="B10" s="328"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="328"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="328"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="328"/>
+      <c r="S10" s="328"/>
+      <c r="T10" s="328"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="328"/>
+      <c r="AC10" s="328"/>
+      <c r="AD10" s="328"/>
+      <c r="AE10" s="328"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="328"/>
+      <c r="AH10" s="328"/>
+      <c r="AI10" s="328"/>
+      <c r="AJ10" s="328"/>
+      <c r="AK10" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="AL10" s="449"/>
-      <c r="AM10" s="449"/>
-      <c r="AN10" s="449"/>
-      <c r="AO10" s="449"/>
-      <c r="AP10" s="450"/>
+      <c r="AL10" s="325"/>
+      <c r="AM10" s="325"/>
+      <c r="AN10" s="325"/>
+      <c r="AO10" s="325"/>
+      <c r="AP10" s="326"/>
       <c r="AQ10" s="96"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11" s="451" t="s">
+      <c r="A11" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="452"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="452"/>
-      <c r="E11" s="452"/>
-      <c r="F11" s="452"/>
-      <c r="G11" s="452"/>
-      <c r="H11" s="452"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="452"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="452"/>
-      <c r="M11" s="452"/>
-      <c r="N11" s="452"/>
-      <c r="O11" s="452"/>
-      <c r="P11" s="452"/>
-      <c r="Q11" s="452"/>
-      <c r="R11" s="452"/>
-      <c r="S11" s="452"/>
-      <c r="T11" s="452"/>
-      <c r="U11" s="452"/>
-      <c r="V11" s="452"/>
-      <c r="W11" s="452"/>
-      <c r="X11" s="452"/>
-      <c r="Y11" s="453"/>
-      <c r="Z11" s="454" t="s">
+      <c r="B11" s="330"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="330"/>
+      <c r="K11" s="330"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="330"/>
+      <c r="R11" s="330"/>
+      <c r="S11" s="330"/>
+      <c r="T11" s="330"/>
+      <c r="U11" s="330"/>
+      <c r="V11" s="330"/>
+      <c r="W11" s="330"/>
+      <c r="X11" s="330"/>
+      <c r="Y11" s="331"/>
+      <c r="Z11" s="332" t="s">
         <v>65</v>
       </c>
-      <c r="AA11" s="455"/>
-      <c r="AB11" s="455"/>
-      <c r="AC11" s="455"/>
-      <c r="AD11" s="455"/>
-      <c r="AE11" s="455"/>
-      <c r="AF11" s="455"/>
-      <c r="AG11" s="456"/>
+      <c r="AA11" s="333"/>
+      <c r="AB11" s="333"/>
+      <c r="AC11" s="333"/>
+      <c r="AD11" s="333"/>
+      <c r="AE11" s="333"/>
+      <c r="AF11" s="333"/>
+      <c r="AG11" s="334"/>
       <c r="AH11" s="97"/>
-      <c r="AI11" s="356" t="s">
+      <c r="AI11" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="AJ11" s="358"/>
-      <c r="AK11" s="358"/>
-      <c r="AL11" s="358"/>
-      <c r="AM11" s="358"/>
-      <c r="AN11" s="358"/>
-      <c r="AO11" s="358"/>
-      <c r="AP11" s="359"/>
+      <c r="AJ11" s="301"/>
+      <c r="AK11" s="301"/>
+      <c r="AL11" s="301"/>
+      <c r="AM11" s="301"/>
+      <c r="AN11" s="301"/>
+      <c r="AO11" s="301"/>
+      <c r="AP11" s="335"/>
       <c r="AQ11" s="96"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12" s="435" t="s">
+      <c r="A12" s="346" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="436"/>
-      <c r="C12" s="436"/>
-      <c r="D12" s="436"/>
-      <c r="E12" s="436"/>
-      <c r="F12" s="436"/>
-      <c r="G12" s="436"/>
-      <c r="H12" s="436"/>
-      <c r="I12" s="436"/>
-      <c r="J12" s="436"/>
-      <c r="K12" s="436"/>
-      <c r="L12" s="436"/>
-      <c r="M12" s="436"/>
-      <c r="N12" s="436"/>
-      <c r="O12" s="436"/>
-      <c r="P12" s="436"/>
-      <c r="Q12" s="436"/>
-      <c r="R12" s="436"/>
-      <c r="S12" s="436"/>
-      <c r="T12" s="436"/>
-      <c r="U12" s="436"/>
-      <c r="V12" s="436"/>
-      <c r="W12" s="436"/>
-      <c r="X12" s="436"/>
-      <c r="Y12" s="447"/>
-      <c r="Z12" s="378"/>
-      <c r="AA12" s="364"/>
-      <c r="AB12" s="364"/>
-      <c r="AC12" s="364"/>
-      <c r="AD12" s="364"/>
-      <c r="AE12" s="364"/>
-      <c r="AF12" s="364"/>
-      <c r="AG12" s="365"/>
+      <c r="B12" s="347"/>
+      <c r="C12" s="347"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="347"/>
+      <c r="G12" s="347"/>
+      <c r="H12" s="347"/>
+      <c r="I12" s="347"/>
+      <c r="J12" s="347"/>
+      <c r="K12" s="347"/>
+      <c r="L12" s="347"/>
+      <c r="M12" s="347"/>
+      <c r="N12" s="347"/>
+      <c r="O12" s="347"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="347"/>
+      <c r="R12" s="347"/>
+      <c r="S12" s="347"/>
+      <c r="T12" s="347"/>
+      <c r="U12" s="347"/>
+      <c r="V12" s="347"/>
+      <c r="W12" s="347"/>
+      <c r="X12" s="347"/>
+      <c r="Y12" s="348"/>
+      <c r="Z12" s="349"/>
+      <c r="AA12" s="350"/>
+      <c r="AB12" s="350"/>
+      <c r="AC12" s="350"/>
+      <c r="AD12" s="350"/>
+      <c r="AE12" s="350"/>
+      <c r="AF12" s="350"/>
+      <c r="AG12" s="351"/>
       <c r="AH12" s="97"/>
-      <c r="AI12" s="448">
+      <c r="AI12" s="352">
         <f ca="1">TODAY()</f>
-        <v>44613</v>
-      </c>
-      <c r="AJ12" s="364"/>
-      <c r="AK12" s="364"/>
-      <c r="AL12" s="364"/>
-      <c r="AM12" s="364"/>
-      <c r="AN12" s="364"/>
-      <c r="AO12" s="364"/>
-      <c r="AP12" s="387"/>
+        <v>44615</v>
+      </c>
+      <c r="AJ12" s="350"/>
+      <c r="AK12" s="350"/>
+      <c r="AL12" s="350"/>
+      <c r="AM12" s="350"/>
+      <c r="AN12" s="350"/>
+      <c r="AO12" s="350"/>
+      <c r="AP12" s="353"/>
       <c r="AQ12" s="96"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13" s="382" t="s">
+      <c r="A13" s="322" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="354"/>
-      <c r="E13" s="354"/>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="354"/>
-      <c r="K13" s="354"/>
-      <c r="L13" s="354"/>
-      <c r="M13" s="354"/>
-      <c r="N13" s="354"/>
-      <c r="O13" s="354"/>
-      <c r="P13" s="354"/>
-      <c r="Q13" s="355"/>
-      <c r="R13" s="353" t="s">
+      <c r="B13" s="323"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="323"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="323"/>
+      <c r="J13" s="323"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="323"/>
+      <c r="Q13" s="324"/>
+      <c r="R13" s="354" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="354"/>
-      <c r="T13" s="354"/>
-      <c r="U13" s="354"/>
-      <c r="V13" s="354"/>
-      <c r="W13" s="354"/>
-      <c r="X13" s="354"/>
-      <c r="Y13" s="354"/>
-      <c r="Z13" s="354"/>
-      <c r="AA13" s="355"/>
-      <c r="AB13" s="356" t="s">
+      <c r="S13" s="323"/>
+      <c r="T13" s="323"/>
+      <c r="U13" s="323"/>
+      <c r="V13" s="323"/>
+      <c r="W13" s="323"/>
+      <c r="X13" s="323"/>
+      <c r="Y13" s="323"/>
+      <c r="Z13" s="323"/>
+      <c r="AA13" s="324"/>
+      <c r="AB13" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" s="358"/>
-      <c r="AD13" s="358"/>
-      <c r="AE13" s="358"/>
-      <c r="AF13" s="358"/>
-      <c r="AG13" s="357"/>
+      <c r="AC13" s="301"/>
+      <c r="AD13" s="301"/>
+      <c r="AE13" s="301"/>
+      <c r="AF13" s="301"/>
+      <c r="AG13" s="302"/>
       <c r="AH13" s="97"/>
-      <c r="AI13" s="356" t="s">
+      <c r="AI13" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="AJ13" s="358"/>
-      <c r="AK13" s="358"/>
-      <c r="AL13" s="358"/>
-      <c r="AM13" s="358"/>
-      <c r="AN13" s="358"/>
-      <c r="AO13" s="358"/>
-      <c r="AP13" s="359"/>
+      <c r="AJ13" s="301"/>
+      <c r="AK13" s="301"/>
+      <c r="AL13" s="301"/>
+      <c r="AM13" s="301"/>
+      <c r="AN13" s="301"/>
+      <c r="AO13" s="301"/>
+      <c r="AP13" s="335"/>
       <c r="AQ13" s="96"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14" s="435"/>
-      <c r="B14" s="436"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="436"/>
-      <c r="G14" s="436"/>
-      <c r="H14" s="436"/>
-      <c r="I14" s="436"/>
-      <c r="J14" s="436"/>
-      <c r="K14" s="436"/>
-      <c r="L14" s="436"/>
-      <c r="M14" s="436"/>
-      <c r="N14" s="436"/>
-      <c r="O14" s="436"/>
-      <c r="P14" s="437"/>
-      <c r="Q14" s="438"/>
-      <c r="R14" s="439"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="307"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="307"/>
-      <c r="X14" s="380"/>
-      <c r="Y14" s="380"/>
-      <c r="Z14" s="380"/>
-      <c r="AA14" s="440"/>
-      <c r="AB14" s="378"/>
-      <c r="AC14" s="364"/>
-      <c r="AD14" s="364"/>
-      <c r="AE14" s="364"/>
-      <c r="AF14" s="364"/>
-      <c r="AG14" s="365"/>
+      <c r="A14" s="346"/>
+      <c r="B14" s="347"/>
+      <c r="C14" s="347"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="347"/>
+      <c r="G14" s="347"/>
+      <c r="H14" s="347"/>
+      <c r="I14" s="347"/>
+      <c r="J14" s="347"/>
+      <c r="K14" s="347"/>
+      <c r="L14" s="347"/>
+      <c r="M14" s="347"/>
+      <c r="N14" s="347"/>
+      <c r="O14" s="347"/>
+      <c r="P14" s="355"/>
+      <c r="Q14" s="356"/>
+      <c r="R14" s="357"/>
+      <c r="S14" s="358"/>
+      <c r="T14" s="358"/>
+      <c r="U14" s="358"/>
+      <c r="V14" s="358"/>
+      <c r="W14" s="358"/>
+      <c r="X14" s="337"/>
+      <c r="Y14" s="337"/>
+      <c r="Z14" s="337"/>
+      <c r="AA14" s="338"/>
+      <c r="AB14" s="349"/>
+      <c r="AC14" s="350"/>
+      <c r="AD14" s="350"/>
+      <c r="AE14" s="350"/>
+      <c r="AF14" s="350"/>
+      <c r="AG14" s="351"/>
       <c r="AH14" s="97"/>
-      <c r="AI14" s="441"/>
-      <c r="AJ14" s="442"/>
-      <c r="AK14" s="442"/>
-      <c r="AL14" s="442"/>
-      <c r="AM14" s="442"/>
-      <c r="AN14" s="442"/>
-      <c r="AO14" s="442"/>
-      <c r="AP14" s="443"/>
+      <c r="AI14" s="359"/>
+      <c r="AJ14" s="315"/>
+      <c r="AK14" s="315"/>
+      <c r="AL14" s="315"/>
+      <c r="AM14" s="315"/>
+      <c r="AN14" s="315"/>
+      <c r="AO14" s="315"/>
+      <c r="AP14" s="360"/>
       <c r="AQ14" s="96"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" s="382" t="s">
+      <c r="A15" s="322" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="354"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354"/>
-      <c r="H15" s="354"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="354"/>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="354"/>
-      <c r="O15" s="355"/>
-      <c r="P15" s="356" t="s">
+      <c r="B15" s="323"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="323"/>
+      <c r="E15" s="323"/>
+      <c r="F15" s="323"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="323"/>
+      <c r="J15" s="323"/>
+      <c r="K15" s="323"/>
+      <c r="L15" s="323"/>
+      <c r="M15" s="323"/>
+      <c r="N15" s="323"/>
+      <c r="O15" s="324"/>
+      <c r="P15" s="300" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="358"/>
-      <c r="R15" s="358"/>
-      <c r="S15" s="358"/>
-      <c r="T15" s="358"/>
-      <c r="U15" s="358"/>
-      <c r="V15" s="358"/>
-      <c r="W15" s="357"/>
-      <c r="X15" s="356" t="s">
+      <c r="Q15" s="301"/>
+      <c r="R15" s="301"/>
+      <c r="S15" s="301"/>
+      <c r="T15" s="301"/>
+      <c r="U15" s="301"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="302"/>
+      <c r="X15" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="357"/>
-      <c r="Z15" s="356" t="s">
+      <c r="Y15" s="302"/>
+      <c r="Z15" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AA15" s="358"/>
-      <c r="AB15" s="358"/>
-      <c r="AC15" s="358"/>
-      <c r="AD15" s="358"/>
-      <c r="AE15" s="358"/>
-      <c r="AF15" s="358"/>
-      <c r="AG15" s="357"/>
+      <c r="AA15" s="301"/>
+      <c r="AB15" s="301"/>
+      <c r="AC15" s="301"/>
+      <c r="AD15" s="301"/>
+      <c r="AE15" s="301"/>
+      <c r="AF15" s="301"/>
+      <c r="AG15" s="302"/>
       <c r="AH15" s="97"/>
-      <c r="AI15" s="356" t="s">
+      <c r="AI15" s="300" t="s">
         <v>75</v>
       </c>
-      <c r="AJ15" s="358"/>
-      <c r="AK15" s="358"/>
-      <c r="AL15" s="358"/>
-      <c r="AM15" s="358"/>
-      <c r="AN15" s="358"/>
-      <c r="AO15" s="358"/>
-      <c r="AP15" s="359"/>
+      <c r="AJ15" s="301"/>
+      <c r="AK15" s="301"/>
+      <c r="AL15" s="301"/>
+      <c r="AM15" s="301"/>
+      <c r="AN15" s="301"/>
+      <c r="AO15" s="301"/>
+      <c r="AP15" s="335"/>
       <c r="AQ15" s="96"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" s="444"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="380"/>
-      <c r="M16" s="380"/>
-      <c r="N16" s="380"/>
-      <c r="O16" s="440"/>
-      <c r="P16" s="429"/>
-      <c r="Q16" s="427"/>
-      <c r="R16" s="427"/>
-      <c r="S16" s="427"/>
-      <c r="T16" s="427"/>
-      <c r="U16" s="427"/>
-      <c r="V16" s="427"/>
-      <c r="W16" s="428"/>
-      <c r="X16" s="378"/>
-      <c r="Y16" s="365"/>
-      <c r="Z16" s="445"/>
-      <c r="AA16" s="364"/>
-      <c r="AB16" s="364"/>
-      <c r="AC16" s="364"/>
-      <c r="AD16" s="364"/>
-      <c r="AE16" s="364"/>
-      <c r="AF16" s="364"/>
-      <c r="AG16" s="365"/>
+      <c r="A16" s="336"/>
+      <c r="B16" s="337"/>
+      <c r="C16" s="337"/>
+      <c r="D16" s="337"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="337"/>
+      <c r="J16" s="337"/>
+      <c r="K16" s="337"/>
+      <c r="L16" s="337"/>
+      <c r="M16" s="337"/>
+      <c r="N16" s="337"/>
+      <c r="O16" s="338"/>
+      <c r="P16" s="361"/>
+      <c r="Q16" s="362"/>
+      <c r="R16" s="362"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="362"/>
+      <c r="U16" s="362"/>
+      <c r="V16" s="362"/>
+      <c r="W16" s="363"/>
+      <c r="X16" s="349"/>
+      <c r="Y16" s="351"/>
+      <c r="Z16" s="339"/>
+      <c r="AA16" s="350"/>
+      <c r="AB16" s="350"/>
+      <c r="AC16" s="350"/>
+      <c r="AD16" s="350"/>
+      <c r="AE16" s="350"/>
+      <c r="AF16" s="350"/>
+      <c r="AG16" s="351"/>
       <c r="AH16" s="97"/>
-      <c r="AI16" s="446"/>
-      <c r="AJ16" s="442"/>
-      <c r="AK16" s="442"/>
-      <c r="AL16" s="442"/>
-      <c r="AM16" s="442"/>
-      <c r="AN16" s="442"/>
-      <c r="AO16" s="442"/>
-      <c r="AP16" s="443"/>
+      <c r="AI16" s="341"/>
+      <c r="AJ16" s="315"/>
+      <c r="AK16" s="315"/>
+      <c r="AL16" s="315"/>
+      <c r="AM16" s="315"/>
+      <c r="AN16" s="315"/>
+      <c r="AO16" s="315"/>
+      <c r="AP16" s="360"/>
       <c r="AQ16" s="96"/>
     </row>
     <row r="17" spans="1:46" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="432" t="s">
+      <c r="A17" s="364" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="433"/>
-      <c r="C17" s="433"/>
-      <c r="D17" s="433"/>
-      <c r="E17" s="433"/>
-      <c r="F17" s="433"/>
-      <c r="G17" s="433"/>
-      <c r="H17" s="433"/>
-      <c r="I17" s="433"/>
-      <c r="J17" s="433"/>
-      <c r="K17" s="433"/>
-      <c r="L17" s="433"/>
-      <c r="M17" s="433"/>
-      <c r="N17" s="433"/>
-      <c r="O17" s="433"/>
-      <c r="P17" s="433"/>
-      <c r="Q17" s="433"/>
-      <c r="R17" s="433"/>
-      <c r="S17" s="433"/>
-      <c r="T17" s="433"/>
-      <c r="U17" s="433"/>
-      <c r="V17" s="433"/>
-      <c r="W17" s="433"/>
-      <c r="X17" s="433"/>
-      <c r="Y17" s="433"/>
-      <c r="Z17" s="433"/>
-      <c r="AA17" s="433"/>
-      <c r="AB17" s="433"/>
-      <c r="AC17" s="433"/>
-      <c r="AD17" s="433"/>
-      <c r="AE17" s="433"/>
-      <c r="AF17" s="433"/>
-      <c r="AG17" s="433"/>
-      <c r="AH17" s="433"/>
-      <c r="AI17" s="433"/>
-      <c r="AJ17" s="433"/>
-      <c r="AK17" s="433"/>
-      <c r="AL17" s="433"/>
-      <c r="AM17" s="433"/>
-      <c r="AN17" s="433"/>
-      <c r="AO17" s="433"/>
-      <c r="AP17" s="434"/>
+      <c r="B17" s="365"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="365"/>
+      <c r="M17" s="365"/>
+      <c r="N17" s="365"/>
+      <c r="O17" s="365"/>
+      <c r="P17" s="365"/>
+      <c r="Q17" s="365"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="365"/>
+      <c r="T17" s="365"/>
+      <c r="U17" s="365"/>
+      <c r="V17" s="365"/>
+      <c r="W17" s="365"/>
+      <c r="X17" s="365"/>
+      <c r="Y17" s="365"/>
+      <c r="Z17" s="365"/>
+      <c r="AA17" s="365"/>
+      <c r="AB17" s="365"/>
+      <c r="AC17" s="365"/>
+      <c r="AD17" s="365"/>
+      <c r="AE17" s="365"/>
+      <c r="AF17" s="365"/>
+      <c r="AG17" s="365"/>
+      <c r="AH17" s="365"/>
+      <c r="AI17" s="365"/>
+      <c r="AJ17" s="365"/>
+      <c r="AK17" s="365"/>
+      <c r="AL17" s="365"/>
+      <c r="AM17" s="365"/>
+      <c r="AN17" s="365"/>
+      <c r="AO17" s="365"/>
+      <c r="AP17" s="366"/>
       <c r="AQ17" s="96"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" s="388" t="s">
+      <c r="A18" s="367" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="358"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="340" t="s">
+      <c r="B18" s="301"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="368" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="338"/>
-      <c r="F18" s="338"/>
-      <c r="G18" s="338"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="338"/>
-      <c r="J18" s="338"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="338"/>
-      <c r="M18" s="338"/>
-      <c r="N18" s="338"/>
-      <c r="O18" s="338"/>
-      <c r="P18" s="339"/>
-      <c r="Q18" s="356" t="s">
+      <c r="E18" s="369"/>
+      <c r="F18" s="369"/>
+      <c r="G18" s="369"/>
+      <c r="H18" s="369"/>
+      <c r="I18" s="369"/>
+      <c r="J18" s="369"/>
+      <c r="K18" s="369"/>
+      <c r="L18" s="369"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="369"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="300" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="357"/>
-      <c r="S18" s="356" t="s">
+      <c r="R18" s="302"/>
+      <c r="S18" s="300" t="s">
         <v>77</v>
       </c>
-      <c r="T18" s="357"/>
-      <c r="U18" s="338" t="s">
+      <c r="T18" s="302"/>
+      <c r="U18" s="369" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="339"/>
-      <c r="W18" s="340" t="s">
+      <c r="V18" s="370"/>
+      <c r="W18" s="368" t="s">
         <v>17</v>
       </c>
-      <c r="X18" s="338"/>
-      <c r="Y18" s="338"/>
-      <c r="Z18" s="339"/>
-      <c r="AA18" s="340" t="s">
+      <c r="X18" s="369"/>
+      <c r="Y18" s="369"/>
+      <c r="Z18" s="370"/>
+      <c r="AA18" s="368" t="s">
         <v>78</v>
       </c>
-      <c r="AB18" s="417"/>
-      <c r="AC18" s="417"/>
-      <c r="AD18" s="418"/>
-      <c r="AE18" s="340" t="s">
+      <c r="AB18" s="374"/>
+      <c r="AC18" s="374"/>
+      <c r="AD18" s="375"/>
+      <c r="AE18" s="368" t="s">
         <v>41</v>
       </c>
-      <c r="AF18" s="417"/>
-      <c r="AG18" s="417"/>
-      <c r="AH18" s="418"/>
-      <c r="AI18" s="422" t="s">
+      <c r="AF18" s="374"/>
+      <c r="AG18" s="374"/>
+      <c r="AH18" s="375"/>
+      <c r="AI18" s="379" t="s">
         <v>79</v>
       </c>
-      <c r="AJ18" s="423"/>
-      <c r="AK18" s="423"/>
-      <c r="AL18" s="424"/>
-      <c r="AM18" s="340" t="s">
+      <c r="AJ18" s="380"/>
+      <c r="AK18" s="380"/>
+      <c r="AL18" s="381"/>
+      <c r="AM18" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="AN18" s="338"/>
-      <c r="AO18" s="338"/>
-      <c r="AP18" s="341"/>
+      <c r="AN18" s="369"/>
+      <c r="AO18" s="369"/>
+      <c r="AP18" s="382"/>
       <c r="AQ18" s="96"/>
     </row>
     <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="426" t="s">
+      <c r="A19" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="427"/>
-      <c r="C19" s="428"/>
-      <c r="D19" s="343"/>
-      <c r="E19" s="344"/>
-      <c r="F19" s="344"/>
-      <c r="G19" s="344"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="344"/>
-      <c r="J19" s="344"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="344"/>
-      <c r="M19" s="344"/>
-      <c r="N19" s="344"/>
-      <c r="O19" s="344"/>
-      <c r="P19" s="345"/>
-      <c r="Q19" s="429" t="s">
+      <c r="B19" s="362"/>
+      <c r="C19" s="363"/>
+      <c r="D19" s="371"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="372"/>
+      <c r="G19" s="372"/>
+      <c r="H19" s="372"/>
+      <c r="I19" s="372"/>
+      <c r="J19" s="372"/>
+      <c r="K19" s="372"/>
+      <c r="L19" s="372"/>
+      <c r="M19" s="372"/>
+      <c r="N19" s="372"/>
+      <c r="O19" s="372"/>
+      <c r="P19" s="373"/>
+      <c r="Q19" s="361" t="s">
         <v>81</v>
       </c>
-      <c r="R19" s="428"/>
-      <c r="S19" s="429" t="s">
+      <c r="R19" s="363"/>
+      <c r="S19" s="361" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="428"/>
-      <c r="U19" s="344"/>
-      <c r="V19" s="345"/>
-      <c r="W19" s="343"/>
-      <c r="X19" s="344"/>
-      <c r="Y19" s="344"/>
-      <c r="Z19" s="345"/>
-      <c r="AA19" s="419"/>
-      <c r="AB19" s="420"/>
-      <c r="AC19" s="420"/>
-      <c r="AD19" s="421"/>
-      <c r="AE19" s="419"/>
-      <c r="AF19" s="420"/>
-      <c r="AG19" s="420"/>
-      <c r="AH19" s="421"/>
-      <c r="AI19" s="430" t="s">
+      <c r="T19" s="363"/>
+      <c r="U19" s="372"/>
+      <c r="V19" s="373"/>
+      <c r="W19" s="371"/>
+      <c r="X19" s="372"/>
+      <c r="Y19" s="372"/>
+      <c r="Z19" s="373"/>
+      <c r="AA19" s="376"/>
+      <c r="AB19" s="377"/>
+      <c r="AC19" s="377"/>
+      <c r="AD19" s="378"/>
+      <c r="AE19" s="376"/>
+      <c r="AF19" s="377"/>
+      <c r="AG19" s="377"/>
+      <c r="AH19" s="378"/>
+      <c r="AI19" s="385" t="s">
         <v>42</v>
       </c>
-      <c r="AJ19" s="431"/>
-      <c r="AK19" s="430" t="s">
+      <c r="AJ19" s="386"/>
+      <c r="AK19" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="AL19" s="431"/>
-      <c r="AM19" s="343"/>
-      <c r="AN19" s="344"/>
-      <c r="AO19" s="344"/>
-      <c r="AP19" s="425"/>
+      <c r="AL19" s="386"/>
+      <c r="AM19" s="371"/>
+      <c r="AN19" s="372"/>
+      <c r="AO19" s="372"/>
+      <c r="AP19" s="383"/>
       <c r="AQ19" s="96"/>
     </row>
     <row r="20" spans="1:46" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="415"/>
-      <c r="B20" s="416"/>
-      <c r="C20" s="416"/>
-      <c r="D20" s="408" t="e">
+      <c r="A20" s="387"/>
+      <c r="B20" s="388"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="389" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="409"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="409"/>
-      <c r="H20" s="409"/>
-      <c r="I20" s="409"/>
-      <c r="J20" s="409"/>
-      <c r="K20" s="409"/>
-      <c r="L20" s="409"/>
-      <c r="M20" s="409"/>
-      <c r="N20" s="409"/>
-      <c r="O20" s="409"/>
-      <c r="P20" s="410"/>
-      <c r="Q20" s="402" t="s">
+      <c r="E20" s="390"/>
+      <c r="F20" s="390"/>
+      <c r="G20" s="390"/>
+      <c r="H20" s="390"/>
+      <c r="I20" s="390"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="390"/>
+      <c r="M20" s="390"/>
+      <c r="N20" s="390"/>
+      <c r="O20" s="390"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="392" t="s">
         <v>83</v>
       </c>
-      <c r="R20" s="402"/>
-      <c r="S20" s="402"/>
-      <c r="T20" s="402"/>
-      <c r="U20" s="411" t="s">
+      <c r="R20" s="392"/>
+      <c r="S20" s="392"/>
+      <c r="T20" s="392"/>
+      <c r="U20" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="411"/>
-      <c r="W20" s="405" t="e">
+      <c r="V20" s="393"/>
+      <c r="W20" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X20" s="405"/>
-      <c r="Y20" s="405"/>
-      <c r="Z20" s="405"/>
-      <c r="AA20" s="392" t="e">
+      <c r="X20" s="394"/>
+      <c r="Y20" s="394"/>
+      <c r="Z20" s="394"/>
+      <c r="AA20" s="395" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB20" s="392"/>
-      <c r="AC20" s="392"/>
-      <c r="AD20" s="392"/>
-      <c r="AE20" s="406" t="e">
+      <c r="AB20" s="395"/>
+      <c r="AC20" s="395"/>
+      <c r="AD20" s="395"/>
+      <c r="AE20" s="396" t="e">
         <f>AA20*W20</f>
         <v>#REF!</v>
       </c>
-      <c r="AF20" s="406"/>
-      <c r="AG20" s="406"/>
-      <c r="AH20" s="406"/>
-      <c r="AI20" s="407" t="e">
+      <c r="AF20" s="396"/>
+      <c r="AG20" s="396"/>
+      <c r="AH20" s="396"/>
+      <c r="AI20" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ20" s="407"/>
-      <c r="AK20" s="407" t="e">
+      <c r="AJ20" s="397"/>
+      <c r="AK20" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL20" s="407"/>
-      <c r="AM20" s="406" t="e">
+      <c r="AL20" s="397"/>
+      <c r="AM20" s="396" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN20" s="406"/>
-      <c r="AO20" s="406"/>
-      <c r="AP20" s="412"/>
+      <c r="AN20" s="396"/>
+      <c r="AO20" s="396"/>
+      <c r="AP20" s="398"/>
       <c r="AQ20" s="98"/>
       <c r="AR20" s="80"/>
       <c r="AT20" s="6"/>
     </row>
     <row r="21" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="396"/>
-      <c r="B21" s="397"/>
-      <c r="C21" s="397"/>
-      <c r="D21" s="408" t="e">
+      <c r="A21" s="399"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="389" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E21" s="413"/>
-      <c r="F21" s="413"/>
-      <c r="G21" s="413"/>
-      <c r="H21" s="413"/>
-      <c r="I21" s="413"/>
-      <c r="J21" s="413"/>
-      <c r="K21" s="413"/>
-      <c r="L21" s="413"/>
-      <c r="M21" s="413"/>
-      <c r="N21" s="413"/>
-      <c r="O21" s="413"/>
-      <c r="P21" s="414"/>
-      <c r="Q21" s="402" t="s">
+      <c r="E21" s="401"/>
+      <c r="F21" s="401"/>
+      <c r="G21" s="401"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="401"/>
+      <c r="J21" s="401"/>
+      <c r="K21" s="401"/>
+      <c r="L21" s="401"/>
+      <c r="M21" s="401"/>
+      <c r="N21" s="401"/>
+      <c r="O21" s="401"/>
+      <c r="P21" s="402"/>
+      <c r="Q21" s="392" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="402"/>
-      <c r="S21" s="402"/>
-      <c r="T21" s="402"/>
-      <c r="U21" s="411" t="s">
+      <c r="R21" s="392"/>
+      <c r="S21" s="392"/>
+      <c r="T21" s="392"/>
+      <c r="U21" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="411"/>
-      <c r="W21" s="405" t="e">
+      <c r="V21" s="393"/>
+      <c r="W21" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X21" s="405"/>
-      <c r="Y21" s="405"/>
-      <c r="Z21" s="405"/>
-      <c r="AA21" s="392" t="e">
+      <c r="X21" s="394"/>
+      <c r="Y21" s="394"/>
+      <c r="Z21" s="394"/>
+      <c r="AA21" s="395" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB21" s="392"/>
-      <c r="AC21" s="392"/>
-      <c r="AD21" s="392"/>
-      <c r="AE21" s="406" t="e">
+      <c r="AB21" s="395"/>
+      <c r="AC21" s="395"/>
+      <c r="AD21" s="395"/>
+      <c r="AE21" s="396" t="e">
         <f t="shared" ref="AE21:AE27" si="0">AA21*W21</f>
         <v>#REF!</v>
       </c>
-      <c r="AF21" s="406"/>
-      <c r="AG21" s="406"/>
-      <c r="AH21" s="406"/>
-      <c r="AI21" s="407" t="e">
+      <c r="AF21" s="396"/>
+      <c r="AG21" s="396"/>
+      <c r="AH21" s="396"/>
+      <c r="AI21" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ21" s="407"/>
-      <c r="AK21" s="407" t="e">
+      <c r="AJ21" s="397"/>
+      <c r="AK21" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL21" s="407"/>
-      <c r="AM21" s="406" t="e">
+      <c r="AL21" s="397"/>
+      <c r="AM21" s="396" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN21" s="406"/>
-      <c r="AO21" s="406"/>
-      <c r="AP21" s="412"/>
+      <c r="AN21" s="396"/>
+      <c r="AO21" s="396"/>
+      <c r="AP21" s="398"/>
       <c r="AQ21" s="98"/>
       <c r="AR21" s="80"/>
     </row>
     <row r="22" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="396"/>
-      <c r="B22" s="397"/>
-      <c r="C22" s="397"/>
-      <c r="D22" s="408" t="e">
+      <c r="A22" s="399"/>
+      <c r="B22" s="400"/>
+      <c r="C22" s="400"/>
+      <c r="D22" s="389" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="409"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="409"/>
-      <c r="I22" s="409"/>
-      <c r="J22" s="409"/>
-      <c r="K22" s="409"/>
-      <c r="L22" s="409"/>
-      <c r="M22" s="409"/>
-      <c r="N22" s="409"/>
-      <c r="O22" s="409"/>
-      <c r="P22" s="410"/>
-      <c r="Q22" s="402" t="s">
+      <c r="E22" s="390"/>
+      <c r="F22" s="390"/>
+      <c r="G22" s="390"/>
+      <c r="H22" s="390"/>
+      <c r="I22" s="390"/>
+      <c r="J22" s="390"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="390"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="390"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="391"/>
+      <c r="Q22" s="392" t="s">
         <v>209</v>
       </c>
-      <c r="R22" s="402"/>
-      <c r="S22" s="402"/>
-      <c r="T22" s="402"/>
-      <c r="U22" s="411" t="s">
+      <c r="R22" s="392"/>
+      <c r="S22" s="392"/>
+      <c r="T22" s="392"/>
+      <c r="U22" s="393" t="s">
         <v>208</v>
       </c>
-      <c r="V22" s="411"/>
-      <c r="W22" s="405" t="e">
+      <c r="V22" s="393"/>
+      <c r="W22" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X22" s="405"/>
-      <c r="Y22" s="405"/>
-      <c r="Z22" s="405"/>
-      <c r="AA22" s="392" t="e">
+      <c r="X22" s="394"/>
+      <c r="Y22" s="394"/>
+      <c r="Z22" s="394"/>
+      <c r="AA22" s="395" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB22" s="392"/>
-      <c r="AC22" s="392"/>
-      <c r="AD22" s="392"/>
-      <c r="AE22" s="406" t="e">
+      <c r="AB22" s="395"/>
+      <c r="AC22" s="395"/>
+      <c r="AD22" s="395"/>
+      <c r="AE22" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF22" s="406"/>
-      <c r="AG22" s="406"/>
-      <c r="AH22" s="406"/>
-      <c r="AI22" s="407" t="e">
+      <c r="AF22" s="396"/>
+      <c r="AG22" s="396"/>
+      <c r="AH22" s="396"/>
+      <c r="AI22" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ22" s="407"/>
-      <c r="AK22" s="407" t="e">
+      <c r="AJ22" s="397"/>
+      <c r="AK22" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL22" s="407"/>
-      <c r="AM22" s="406" t="e">
+      <c r="AL22" s="397"/>
+      <c r="AM22" s="396" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN22" s="406"/>
-      <c r="AO22" s="406"/>
-      <c r="AP22" s="412"/>
+      <c r="AN22" s="396"/>
+      <c r="AO22" s="396"/>
+      <c r="AP22" s="398"/>
       <c r="AQ22" s="98"/>
       <c r="AR22" s="80"/>
       <c r="AT22" s="6"/>
     </row>
     <row r="23" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="396"/>
-      <c r="B23" s="397"/>
-      <c r="C23" s="397"/>
-      <c r="D23" s="408"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="409"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="409"/>
-      <c r="L23" s="409"/>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
-      <c r="O23" s="409"/>
-      <c r="P23" s="410"/>
-      <c r="Q23" s="401" t="s">
+      <c r="A23" s="399"/>
+      <c r="B23" s="400"/>
+      <c r="C23" s="400"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="390"/>
+      <c r="L23" s="390"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="391"/>
+      <c r="Q23" s="403" t="s">
         <v>105</v>
       </c>
-      <c r="R23" s="401"/>
-      <c r="S23" s="402"/>
-      <c r="T23" s="402"/>
-      <c r="U23" s="411"/>
-      <c r="V23" s="411"/>
-      <c r="W23" s="405" t="e">
+      <c r="R23" s="403"/>
+      <c r="S23" s="392"/>
+      <c r="T23" s="392"/>
+      <c r="U23" s="393"/>
+      <c r="V23" s="393"/>
+      <c r="W23" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X23" s="405"/>
-      <c r="Y23" s="405"/>
-      <c r="Z23" s="405"/>
-      <c r="AA23" s="392"/>
-      <c r="AB23" s="392"/>
-      <c r="AC23" s="392"/>
-      <c r="AD23" s="392"/>
-      <c r="AE23" s="406" t="e">
+      <c r="X23" s="394"/>
+      <c r="Y23" s="394"/>
+      <c r="Z23" s="394"/>
+      <c r="AA23" s="395"/>
+      <c r="AB23" s="395"/>
+      <c r="AC23" s="395"/>
+      <c r="AD23" s="395"/>
+      <c r="AE23" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF23" s="406"/>
-      <c r="AG23" s="406"/>
-      <c r="AH23" s="406"/>
-      <c r="AI23" s="407" t="e">
+      <c r="AF23" s="396"/>
+      <c r="AG23" s="396"/>
+      <c r="AH23" s="396"/>
+      <c r="AI23" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ23" s="407"/>
-      <c r="AK23" s="407" t="e">
+      <c r="AJ23" s="397"/>
+      <c r="AK23" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL23" s="407"/>
-      <c r="AM23" s="393" t="e">
+      <c r="AL23" s="397"/>
+      <c r="AM23" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN23" s="393"/>
-      <c r="AO23" s="393"/>
-      <c r="AP23" s="395"/>
+      <c r="AN23" s="404"/>
+      <c r="AO23" s="404"/>
+      <c r="AP23" s="405"/>
       <c r="AQ23" s="98"/>
       <c r="AR23" s="80"/>
     </row>
     <row r="24" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="396"/>
-      <c r="B24" s="397"/>
-      <c r="C24" s="397"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="409"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="409"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="409"/>
-      <c r="L24" s="409"/>
-      <c r="M24" s="409"/>
-      <c r="N24" s="409"/>
-      <c r="O24" s="409"/>
-      <c r="P24" s="410"/>
-      <c r="Q24" s="401" t="s">
+      <c r="A24" s="399"/>
+      <c r="B24" s="400"/>
+      <c r="C24" s="400"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="390"/>
+      <c r="G24" s="390"/>
+      <c r="H24" s="390"/>
+      <c r="I24" s="390"/>
+      <c r="J24" s="390"/>
+      <c r="K24" s="390"/>
+      <c r="L24" s="390"/>
+      <c r="M24" s="390"/>
+      <c r="N24" s="390"/>
+      <c r="O24" s="390"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="403" t="s">
         <v>106</v>
       </c>
-      <c r="R24" s="401"/>
-      <c r="S24" s="402"/>
-      <c r="T24" s="402"/>
-      <c r="U24" s="411"/>
-      <c r="V24" s="411"/>
-      <c r="W24" s="405" t="e">
+      <c r="R24" s="403"/>
+      <c r="S24" s="392"/>
+      <c r="T24" s="392"/>
+      <c r="U24" s="393"/>
+      <c r="V24" s="393"/>
+      <c r="W24" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X24" s="405"/>
-      <c r="Y24" s="405"/>
-      <c r="Z24" s="405"/>
-      <c r="AA24" s="392"/>
-      <c r="AB24" s="392"/>
-      <c r="AC24" s="392"/>
-      <c r="AD24" s="392"/>
-      <c r="AE24" s="406" t="e">
+      <c r="X24" s="394"/>
+      <c r="Y24" s="394"/>
+      <c r="Z24" s="394"/>
+      <c r="AA24" s="395"/>
+      <c r="AB24" s="395"/>
+      <c r="AC24" s="395"/>
+      <c r="AD24" s="395"/>
+      <c r="AE24" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF24" s="406"/>
-      <c r="AG24" s="406"/>
-      <c r="AH24" s="406"/>
-      <c r="AI24" s="407" t="e">
+      <c r="AF24" s="396"/>
+      <c r="AG24" s="396"/>
+      <c r="AH24" s="396"/>
+      <c r="AI24" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ24" s="407"/>
-      <c r="AK24" s="407" t="e">
+      <c r="AJ24" s="397"/>
+      <c r="AK24" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL24" s="407"/>
-      <c r="AM24" s="393" t="e">
+      <c r="AL24" s="397"/>
+      <c r="AM24" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN24" s="393"/>
-      <c r="AO24" s="393"/>
-      <c r="AP24" s="395"/>
+      <c r="AN24" s="404"/>
+      <c r="AO24" s="404"/>
+      <c r="AP24" s="405"/>
       <c r="AQ24" s="98"/>
       <c r="AR24" s="80"/>
     </row>
     <row r="25" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="396"/>
-      <c r="B25" s="397"/>
-      <c r="C25" s="397"/>
-      <c r="D25" s="408"/>
-      <c r="E25" s="409"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="409"/>
-      <c r="H25" s="409"/>
-      <c r="I25" s="409"/>
-      <c r="J25" s="409"/>
-      <c r="K25" s="409"/>
-      <c r="L25" s="409"/>
-      <c r="M25" s="409"/>
-      <c r="N25" s="409"/>
-      <c r="O25" s="409"/>
-      <c r="P25" s="410"/>
-      <c r="Q25" s="401" t="s">
+      <c r="A25" s="399"/>
+      <c r="B25" s="400"/>
+      <c r="C25" s="400"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="390"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="390"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="390"/>
+      <c r="L25" s="390"/>
+      <c r="M25" s="390"/>
+      <c r="N25" s="390"/>
+      <c r="O25" s="390"/>
+      <c r="P25" s="391"/>
+      <c r="Q25" s="403" t="s">
         <v>108</v>
       </c>
-      <c r="R25" s="401"/>
-      <c r="S25" s="402"/>
-      <c r="T25" s="402"/>
-      <c r="U25" s="411"/>
-      <c r="V25" s="411"/>
-      <c r="W25" s="405" t="e">
+      <c r="R25" s="403"/>
+      <c r="S25" s="392"/>
+      <c r="T25" s="392"/>
+      <c r="U25" s="393"/>
+      <c r="V25" s="393"/>
+      <c r="W25" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X25" s="405"/>
-      <c r="Y25" s="405"/>
-      <c r="Z25" s="405"/>
-      <c r="AA25" s="392"/>
-      <c r="AB25" s="392"/>
-      <c r="AC25" s="392"/>
-      <c r="AD25" s="392"/>
-      <c r="AE25" s="406" t="e">
+      <c r="X25" s="394"/>
+      <c r="Y25" s="394"/>
+      <c r="Z25" s="394"/>
+      <c r="AA25" s="395"/>
+      <c r="AB25" s="395"/>
+      <c r="AC25" s="395"/>
+      <c r="AD25" s="395"/>
+      <c r="AE25" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF25" s="406"/>
-      <c r="AG25" s="406"/>
-      <c r="AH25" s="406"/>
-      <c r="AI25" s="407" t="e">
+      <c r="AF25" s="396"/>
+      <c r="AG25" s="396"/>
+      <c r="AH25" s="396"/>
+      <c r="AI25" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ25" s="407"/>
-      <c r="AK25" s="407" t="e">
+      <c r="AJ25" s="397"/>
+      <c r="AK25" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL25" s="407"/>
-      <c r="AM25" s="393" t="e">
+      <c r="AL25" s="397"/>
+      <c r="AM25" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN25" s="393"/>
-      <c r="AO25" s="393"/>
-      <c r="AP25" s="395"/>
+      <c r="AN25" s="404"/>
+      <c r="AO25" s="404"/>
+      <c r="AP25" s="405"/>
       <c r="AQ25" s="98"/>
       <c r="AR25" s="80"/>
     </row>
     <row r="26" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="396"/>
-      <c r="B26" s="397"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="408"/>
-      <c r="E26" s="409"/>
-      <c r="F26" s="409"/>
-      <c r="G26" s="409"/>
-      <c r="H26" s="409"/>
-      <c r="I26" s="409"/>
-      <c r="J26" s="409"/>
-      <c r="K26" s="409"/>
-      <c r="L26" s="409"/>
-      <c r="M26" s="409"/>
-      <c r="N26" s="409"/>
-      <c r="O26" s="409"/>
-      <c r="P26" s="410"/>
-      <c r="Q26" s="401" t="s">
+      <c r="A26" s="399"/>
+      <c r="B26" s="400"/>
+      <c r="C26" s="400"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="390"/>
+      <c r="F26" s="390"/>
+      <c r="G26" s="390"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="390"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="390"/>
+      <c r="L26" s="390"/>
+      <c r="M26" s="390"/>
+      <c r="N26" s="390"/>
+      <c r="O26" s="390"/>
+      <c r="P26" s="391"/>
+      <c r="Q26" s="403" t="s">
         <v>102</v>
       </c>
-      <c r="R26" s="401"/>
-      <c r="S26" s="402"/>
-      <c r="T26" s="402"/>
-      <c r="U26" s="411"/>
-      <c r="V26" s="411"/>
-      <c r="W26" s="405" t="e">
+      <c r="R26" s="403"/>
+      <c r="S26" s="392"/>
+      <c r="T26" s="392"/>
+      <c r="U26" s="393"/>
+      <c r="V26" s="393"/>
+      <c r="W26" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X26" s="405"/>
-      <c r="Y26" s="405"/>
-      <c r="Z26" s="405"/>
-      <c r="AA26" s="392"/>
-      <c r="AB26" s="392"/>
-      <c r="AC26" s="392"/>
-      <c r="AD26" s="392"/>
-      <c r="AE26" s="406" t="e">
+      <c r="X26" s="394"/>
+      <c r="Y26" s="394"/>
+      <c r="Z26" s="394"/>
+      <c r="AA26" s="395"/>
+      <c r="AB26" s="395"/>
+      <c r="AC26" s="395"/>
+      <c r="AD26" s="395"/>
+      <c r="AE26" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF26" s="406"/>
-      <c r="AG26" s="406"/>
-      <c r="AH26" s="406"/>
-      <c r="AI26" s="407" t="e">
+      <c r="AF26" s="396"/>
+      <c r="AG26" s="396"/>
+      <c r="AH26" s="396"/>
+      <c r="AI26" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ26" s="407"/>
-      <c r="AK26" s="407" t="e">
+      <c r="AJ26" s="397"/>
+      <c r="AK26" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL26" s="407"/>
-      <c r="AM26" s="393" t="e">
+      <c r="AL26" s="397"/>
+      <c r="AM26" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN26" s="393"/>
-      <c r="AO26" s="393"/>
-      <c r="AP26" s="395"/>
+      <c r="AN26" s="404"/>
+      <c r="AO26" s="404"/>
+      <c r="AP26" s="405"/>
       <c r="AQ26" s="98"/>
       <c r="AR26" s="80"/>
     </row>
     <row r="27" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="396"/>
-      <c r="B27" s="397"/>
-      <c r="C27" s="397"/>
-      <c r="D27" s="408"/>
-      <c r="E27" s="409"/>
-      <c r="F27" s="409"/>
-      <c r="G27" s="409"/>
-      <c r="H27" s="409"/>
-      <c r="I27" s="409"/>
-      <c r="J27" s="409"/>
-      <c r="K27" s="409"/>
-      <c r="L27" s="409"/>
-      <c r="M27" s="409"/>
-      <c r="N27" s="409"/>
-      <c r="O27" s="409"/>
-      <c r="P27" s="410"/>
-      <c r="Q27" s="401" t="s">
+      <c r="A27" s="399"/>
+      <c r="B27" s="400"/>
+      <c r="C27" s="400"/>
+      <c r="D27" s="389"/>
+      <c r="E27" s="390"/>
+      <c r="F27" s="390"/>
+      <c r="G27" s="390"/>
+      <c r="H27" s="390"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
+      <c r="M27" s="390"/>
+      <c r="N27" s="390"/>
+      <c r="O27" s="390"/>
+      <c r="P27" s="391"/>
+      <c r="Q27" s="403" t="s">
         <v>103</v>
       </c>
-      <c r="R27" s="401"/>
-      <c r="S27" s="402"/>
-      <c r="T27" s="402"/>
-      <c r="U27" s="411"/>
-      <c r="V27" s="411"/>
-      <c r="W27" s="405" t="e">
+      <c r="R27" s="403"/>
+      <c r="S27" s="392"/>
+      <c r="T27" s="392"/>
+      <c r="U27" s="393"/>
+      <c r="V27" s="393"/>
+      <c r="W27" s="394" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X27" s="405"/>
-      <c r="Y27" s="405"/>
-      <c r="Z27" s="405"/>
-      <c r="AA27" s="392"/>
-      <c r="AB27" s="392"/>
-      <c r="AC27" s="392"/>
-      <c r="AD27" s="392"/>
-      <c r="AE27" s="406" t="e">
+      <c r="X27" s="394"/>
+      <c r="Y27" s="394"/>
+      <c r="Z27" s="394"/>
+      <c r="AA27" s="395"/>
+      <c r="AB27" s="395"/>
+      <c r="AC27" s="395"/>
+      <c r="AD27" s="395"/>
+      <c r="AE27" s="396" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AF27" s="406"/>
-      <c r="AG27" s="406"/>
-      <c r="AH27" s="406"/>
-      <c r="AI27" s="407" t="e">
+      <c r="AF27" s="396"/>
+      <c r="AG27" s="396"/>
+      <c r="AH27" s="396"/>
+      <c r="AI27" s="397" t="e">
         <f>#REF!%</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ27" s="407"/>
-      <c r="AK27" s="407" t="e">
+      <c r="AJ27" s="397"/>
+      <c r="AK27" s="397" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL27" s="407"/>
-      <c r="AM27" s="393" t="e">
+      <c r="AL27" s="397"/>
+      <c r="AM27" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN27" s="393"/>
-      <c r="AO27" s="393"/>
-      <c r="AP27" s="395"/>
+      <c r="AN27" s="404"/>
+      <c r="AO27" s="404"/>
+      <c r="AP27" s="405"/>
       <c r="AQ27" s="98"/>
       <c r="AR27" s="80"/>
     </row>
     <row r="28" spans="1:46" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="396"/>
-      <c r="B28" s="397"/>
-      <c r="C28" s="397"/>
-      <c r="D28" s="398" t="e">
+      <c r="A28" s="399"/>
+      <c r="B28" s="400"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="406" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="399"/>
-      <c r="F28" s="399"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="399"/>
-      <c r="I28" s="399"/>
-      <c r="J28" s="399"/>
-      <c r="K28" s="399"/>
-      <c r="L28" s="399"/>
-      <c r="M28" s="399"/>
-      <c r="N28" s="399"/>
-      <c r="O28" s="399"/>
-      <c r="P28" s="400"/>
-      <c r="Q28" s="401" t="s">
+      <c r="E28" s="407"/>
+      <c r="F28" s="407"/>
+      <c r="G28" s="407"/>
+      <c r="H28" s="407"/>
+      <c r="I28" s="407"/>
+      <c r="J28" s="407"/>
+      <c r="K28" s="407"/>
+      <c r="L28" s="407"/>
+      <c r="M28" s="407"/>
+      <c r="N28" s="407"/>
+      <c r="O28" s="407"/>
+      <c r="P28" s="408"/>
+      <c r="Q28" s="403" t="s">
         <v>104</v>
       </c>
-      <c r="R28" s="401"/>
-      <c r="S28" s="402"/>
-      <c r="T28" s="402"/>
-      <c r="U28" s="403" t="s">
+      <c r="R28" s="403"/>
+      <c r="S28" s="392"/>
+      <c r="T28" s="392"/>
+      <c r="U28" s="409" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="403"/>
-      <c r="W28" s="404" t="e">
+      <c r="V28" s="409"/>
+      <c r="W28" s="410" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="X28" s="404"/>
-      <c r="Y28" s="404"/>
-      <c r="Z28" s="404"/>
-      <c r="AA28" s="392"/>
-      <c r="AB28" s="392"/>
-      <c r="AC28" s="392"/>
-      <c r="AD28" s="392"/>
-      <c r="AE28" s="393" t="e">
+      <c r="X28" s="410"/>
+      <c r="Y28" s="410"/>
+      <c r="Z28" s="410"/>
+      <c r="AA28" s="395"/>
+      <c r="AB28" s="395"/>
+      <c r="AC28" s="395"/>
+      <c r="AD28" s="395"/>
+      <c r="AE28" s="404" t="e">
         <f>AA28*W28</f>
         <v>#REF!</v>
       </c>
-      <c r="AF28" s="393"/>
-      <c r="AG28" s="393"/>
-      <c r="AH28" s="393"/>
-      <c r="AI28" s="394" t="e">
+      <c r="AF28" s="404"/>
+      <c r="AG28" s="404"/>
+      <c r="AH28" s="404"/>
+      <c r="AI28" s="411" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ28" s="394"/>
-      <c r="AK28" s="394" t="e">
+      <c r="AJ28" s="411"/>
+      <c r="AK28" s="411" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AL28" s="394"/>
-      <c r="AM28" s="393" t="e">
+      <c r="AL28" s="411"/>
+      <c r="AM28" s="404" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AN28" s="393"/>
-      <c r="AO28" s="393"/>
-      <c r="AP28" s="395"/>
+      <c r="AN28" s="404"/>
+      <c r="AO28" s="404"/>
+      <c r="AP28" s="405"/>
       <c r="AQ28" s="98"/>
       <c r="AR28" s="80"/>
       <c r="AT28" s="195"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A29" s="321" t="s">
+      <c r="A29" s="327" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="322"/>
-      <c r="C29" s="322"/>
-      <c r="D29" s="322"/>
-      <c r="E29" s="322"/>
-      <c r="F29" s="322"/>
-      <c r="G29" s="322"/>
-      <c r="H29" s="322"/>
-      <c r="I29" s="322"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="322"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
-      <c r="N29" s="322"/>
-      <c r="O29" s="322"/>
-      <c r="P29" s="322"/>
-      <c r="Q29" s="322"/>
-      <c r="R29" s="322"/>
-      <c r="S29" s="322"/>
-      <c r="T29" s="322"/>
-      <c r="U29" s="322"/>
-      <c r="V29" s="322"/>
-      <c r="W29" s="322"/>
-      <c r="X29" s="322"/>
-      <c r="Y29" s="322"/>
-      <c r="Z29" s="322"/>
-      <c r="AA29" s="322"/>
-      <c r="AB29" s="322"/>
-      <c r="AC29" s="322"/>
-      <c r="AD29" s="322"/>
-      <c r="AE29" s="322"/>
-      <c r="AF29" s="322"/>
-      <c r="AG29" s="322"/>
-      <c r="AH29" s="322"/>
-      <c r="AI29" s="322"/>
-      <c r="AJ29" s="322"/>
-      <c r="AK29" s="322"/>
-      <c r="AL29" s="322"/>
-      <c r="AM29" s="322"/>
-      <c r="AN29" s="322"/>
-      <c r="AO29" s="322"/>
-      <c r="AP29" s="323"/>
+      <c r="B29" s="328"/>
+      <c r="C29" s="328"/>
+      <c r="D29" s="328"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
+      <c r="K29" s="328"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
+      <c r="N29" s="328"/>
+      <c r="O29" s="328"/>
+      <c r="P29" s="328"/>
+      <c r="Q29" s="328"/>
+      <c r="R29" s="328"/>
+      <c r="S29" s="328"/>
+      <c r="T29" s="328"/>
+      <c r="U29" s="328"/>
+      <c r="V29" s="328"/>
+      <c r="W29" s="328"/>
+      <c r="X29" s="328"/>
+      <c r="Y29" s="328"/>
+      <c r="Z29" s="328"/>
+      <c r="AA29" s="328"/>
+      <c r="AB29" s="328"/>
+      <c r="AC29" s="328"/>
+      <c r="AD29" s="328"/>
+      <c r="AE29" s="328"/>
+      <c r="AF29" s="328"/>
+      <c r="AG29" s="328"/>
+      <c r="AH29" s="328"/>
+      <c r="AI29" s="328"/>
+      <c r="AJ29" s="328"/>
+      <c r="AK29" s="328"/>
+      <c r="AL29" s="328"/>
+      <c r="AM29" s="328"/>
+      <c r="AN29" s="328"/>
+      <c r="AO29" s="328"/>
+      <c r="AP29" s="412"/>
       <c r="AQ29" s="96"/>
       <c r="AT29" s="76"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A30" s="388" t="s">
+      <c r="A30" s="367" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="358"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="358"/>
-      <c r="H30" s="358"/>
-      <c r="I30" s="357"/>
-      <c r="J30" s="356" t="s">
+      <c r="B30" s="301"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="301"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="358"/>
-      <c r="L30" s="358"/>
-      <c r="M30" s="358"/>
-      <c r="N30" s="358"/>
-      <c r="O30" s="358"/>
-      <c r="P30" s="357"/>
-      <c r="Q30" s="356" t="s">
+      <c r="K30" s="301"/>
+      <c r="L30" s="301"/>
+      <c r="M30" s="301"/>
+      <c r="N30" s="301"/>
+      <c r="O30" s="301"/>
+      <c r="P30" s="302"/>
+      <c r="Q30" s="300" t="s">
         <v>86</v>
       </c>
-      <c r="R30" s="358"/>
-      <c r="S30" s="358"/>
-      <c r="T30" s="358"/>
-      <c r="U30" s="358"/>
-      <c r="V30" s="358"/>
-      <c r="W30" s="358"/>
-      <c r="X30" s="358"/>
-      <c r="Y30" s="357"/>
-      <c r="Z30" s="356" t="s">
+      <c r="R30" s="301"/>
+      <c r="S30" s="301"/>
+      <c r="T30" s="301"/>
+      <c r="U30" s="301"/>
+      <c r="V30" s="301"/>
+      <c r="W30" s="301"/>
+      <c r="X30" s="301"/>
+      <c r="Y30" s="302"/>
+      <c r="Z30" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="AA30" s="358"/>
-      <c r="AB30" s="358"/>
-      <c r="AC30" s="358"/>
-      <c r="AD30" s="358"/>
-      <c r="AE30" s="358"/>
-      <c r="AF30" s="358"/>
-      <c r="AG30" s="358"/>
-      <c r="AH30" s="357"/>
-      <c r="AI30" s="356" t="s">
+      <c r="AA30" s="301"/>
+      <c r="AB30" s="301"/>
+      <c r="AC30" s="301"/>
+      <c r="AD30" s="301"/>
+      <c r="AE30" s="301"/>
+      <c r="AF30" s="301"/>
+      <c r="AG30" s="301"/>
+      <c r="AH30" s="302"/>
+      <c r="AI30" s="300" t="s">
         <v>45</v>
       </c>
-      <c r="AJ30" s="358"/>
-      <c r="AK30" s="358"/>
-      <c r="AL30" s="358"/>
-      <c r="AM30" s="358"/>
-      <c r="AN30" s="358"/>
-      <c r="AO30" s="358"/>
-      <c r="AP30" s="359"/>
+      <c r="AJ30" s="301"/>
+      <c r="AK30" s="301"/>
+      <c r="AL30" s="301"/>
+      <c r="AM30" s="301"/>
+      <c r="AN30" s="301"/>
+      <c r="AO30" s="301"/>
+      <c r="AP30" s="335"/>
       <c r="AQ30" s="96"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A31" s="389" t="e">
+      <c r="A31" s="417" t="e">
         <f>J31*100/AI20/100</f>
         <v>#REF!</v>
       </c>
-      <c r="B31" s="390"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="390"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="390"/>
-      <c r="G31" s="390"/>
-      <c r="H31" s="390"/>
-      <c r="I31" s="391"/>
-      <c r="J31" s="377" t="e">
+      <c r="B31" s="418"/>
+      <c r="C31" s="418"/>
+      <c r="D31" s="418"/>
+      <c r="E31" s="418"/>
+      <c r="F31" s="418"/>
+      <c r="G31" s="418"/>
+      <c r="H31" s="418"/>
+      <c r="I31" s="419"/>
+      <c r="J31" s="420" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K31" s="361"/>
-      <c r="L31" s="361"/>
-      <c r="M31" s="361"/>
-      <c r="N31" s="361"/>
-      <c r="O31" s="361"/>
-      <c r="P31" s="362"/>
-      <c r="Q31" s="378"/>
-      <c r="R31" s="364"/>
-      <c r="S31" s="364"/>
-      <c r="T31" s="364"/>
-      <c r="U31" s="364"/>
-      <c r="V31" s="364"/>
-      <c r="W31" s="364"/>
-      <c r="X31" s="364"/>
-      <c r="Y31" s="365"/>
-      <c r="Z31" s="378" t="s">
+      <c r="K31" s="421"/>
+      <c r="L31" s="421"/>
+      <c r="M31" s="421"/>
+      <c r="N31" s="421"/>
+      <c r="O31" s="421"/>
+      <c r="P31" s="422"/>
+      <c r="Q31" s="349"/>
+      <c r="R31" s="350"/>
+      <c r="S31" s="350"/>
+      <c r="T31" s="350"/>
+      <c r="U31" s="350"/>
+      <c r="V31" s="350"/>
+      <c r="W31" s="350"/>
+      <c r="X31" s="350"/>
+      <c r="Y31" s="351"/>
+      <c r="Z31" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="AA31" s="364"/>
-      <c r="AB31" s="364"/>
-      <c r="AC31" s="364"/>
-      <c r="AD31" s="364"/>
-      <c r="AE31" s="364"/>
-      <c r="AF31" s="364"/>
-      <c r="AG31" s="364"/>
-      <c r="AH31" s="365"/>
-      <c r="AI31" s="363" t="e">
+      <c r="AA31" s="350"/>
+      <c r="AB31" s="350"/>
+      <c r="AC31" s="350"/>
+      <c r="AD31" s="350"/>
+      <c r="AE31" s="350"/>
+      <c r="AF31" s="350"/>
+      <c r="AG31" s="350"/>
+      <c r="AH31" s="351"/>
+      <c r="AI31" s="416" t="e">
         <f>SUM(AE20:AH28)</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ31" s="364"/>
-      <c r="AK31" s="364"/>
-      <c r="AL31" s="364"/>
-      <c r="AM31" s="364"/>
-      <c r="AN31" s="364"/>
-      <c r="AO31" s="364"/>
-      <c r="AP31" s="387"/>
+      <c r="AJ31" s="350"/>
+      <c r="AK31" s="350"/>
+      <c r="AL31" s="350"/>
+      <c r="AM31" s="350"/>
+      <c r="AN31" s="350"/>
+      <c r="AO31" s="350"/>
+      <c r="AP31" s="353"/>
       <c r="AQ31" s="96"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A32" s="388" t="s">
+      <c r="A32" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="358"/>
-      <c r="C32" s="358"/>
-      <c r="D32" s="358"/>
-      <c r="E32" s="358"/>
-      <c r="F32" s="358"/>
-      <c r="G32" s="358"/>
-      <c r="H32" s="358"/>
-      <c r="I32" s="357"/>
-      <c r="J32" s="356" t="s">
+      <c r="B32" s="301"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="301"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="300" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="358"/>
-      <c r="L32" s="358"/>
-      <c r="M32" s="358"/>
-      <c r="N32" s="358"/>
-      <c r="O32" s="358"/>
-      <c r="P32" s="357"/>
-      <c r="Q32" s="356" t="s">
+      <c r="K32" s="301"/>
+      <c r="L32" s="301"/>
+      <c r="M32" s="301"/>
+      <c r="N32" s="301"/>
+      <c r="O32" s="301"/>
+      <c r="P32" s="302"/>
+      <c r="Q32" s="300" t="s">
         <v>47</v>
       </c>
-      <c r="R32" s="358"/>
-      <c r="S32" s="358"/>
-      <c r="T32" s="358"/>
-      <c r="U32" s="358"/>
-      <c r="V32" s="358"/>
-      <c r="W32" s="358"/>
-      <c r="X32" s="358"/>
-      <c r="Y32" s="357"/>
-      <c r="Z32" s="356" t="s">
+      <c r="R32" s="301"/>
+      <c r="S32" s="301"/>
+      <c r="T32" s="301"/>
+      <c r="U32" s="301"/>
+      <c r="V32" s="301"/>
+      <c r="W32" s="301"/>
+      <c r="X32" s="301"/>
+      <c r="Y32" s="302"/>
+      <c r="Z32" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="AA32" s="358"/>
-      <c r="AB32" s="358"/>
-      <c r="AC32" s="358"/>
-      <c r="AD32" s="358"/>
-      <c r="AE32" s="358"/>
-      <c r="AF32" s="358"/>
-      <c r="AG32" s="358"/>
-      <c r="AH32" s="357"/>
-      <c r="AI32" s="356" t="s">
+      <c r="AA32" s="301"/>
+      <c r="AB32" s="301"/>
+      <c r="AC32" s="301"/>
+      <c r="AD32" s="301"/>
+      <c r="AE32" s="301"/>
+      <c r="AF32" s="301"/>
+      <c r="AG32" s="301"/>
+      <c r="AH32" s="302"/>
+      <c r="AI32" s="300" t="s">
         <v>49</v>
       </c>
-      <c r="AJ32" s="358"/>
-      <c r="AK32" s="358"/>
-      <c r="AL32" s="358"/>
-      <c r="AM32" s="358"/>
-      <c r="AN32" s="358"/>
-      <c r="AO32" s="358"/>
-      <c r="AP32" s="359"/>
+      <c r="AJ32" s="301"/>
+      <c r="AK32" s="301"/>
+      <c r="AL32" s="301"/>
+      <c r="AM32" s="301"/>
+      <c r="AN32" s="301"/>
+      <c r="AO32" s="301"/>
+      <c r="AP32" s="335"/>
       <c r="AQ32" s="96"/>
       <c r="AR32" s="89"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A33" s="383"/>
-      <c r="B33" s="361"/>
-      <c r="C33" s="361"/>
-      <c r="D33" s="361"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="361"/>
-      <c r="G33" s="361"/>
-      <c r="H33" s="361"/>
-      <c r="I33" s="362"/>
-      <c r="J33" s="360" t="s">
+      <c r="A33" s="425"/>
+      <c r="B33" s="421"/>
+      <c r="C33" s="421"/>
+      <c r="D33" s="421"/>
+      <c r="E33" s="421"/>
+      <c r="F33" s="421"/>
+      <c r="G33" s="421"/>
+      <c r="H33" s="421"/>
+      <c r="I33" s="422"/>
+      <c r="J33" s="429" t="s">
         <v>87</v>
       </c>
-      <c r="K33" s="361"/>
-      <c r="L33" s="361"/>
-      <c r="M33" s="361"/>
-      <c r="N33" s="361"/>
-      <c r="O33" s="361"/>
-      <c r="P33" s="362"/>
-      <c r="Q33" s="363" t="e">
+      <c r="K33" s="421"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="421"/>
+      <c r="N33" s="421"/>
+      <c r="O33" s="421"/>
+      <c r="P33" s="422"/>
+      <c r="Q33" s="416" t="e">
         <f>I62+I63+I64</f>
         <v>#REF!</v>
       </c>
-      <c r="R33" s="364"/>
-      <c r="S33" s="364"/>
-      <c r="T33" s="364"/>
-      <c r="U33" s="364"/>
-      <c r="V33" s="364"/>
-      <c r="W33" s="364"/>
-      <c r="X33" s="364"/>
-      <c r="Y33" s="365"/>
-      <c r="Z33" s="384" t="e">
+      <c r="R33" s="350"/>
+      <c r="S33" s="350"/>
+      <c r="T33" s="350"/>
+      <c r="U33" s="350"/>
+      <c r="V33" s="350"/>
+      <c r="W33" s="350"/>
+      <c r="X33" s="350"/>
+      <c r="Y33" s="351"/>
+      <c r="Z33" s="413" t="e">
         <f>SUM(AM20:AP28)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="385"/>
-      <c r="AB33" s="385"/>
-      <c r="AC33" s="385"/>
-      <c r="AD33" s="385"/>
-      <c r="AE33" s="385"/>
-      <c r="AF33" s="385"/>
-      <c r="AG33" s="385"/>
-      <c r="AH33" s="386"/>
-      <c r="AI33" s="379" t="e">
+      <c r="AA33" s="414"/>
+      <c r="AB33" s="414"/>
+      <c r="AC33" s="414"/>
+      <c r="AD33" s="414"/>
+      <c r="AE33" s="414"/>
+      <c r="AF33" s="414"/>
+      <c r="AG33" s="414"/>
+      <c r="AH33" s="415"/>
+      <c r="AI33" s="423" t="e">
         <f>AI31+Z33+Q33+J31+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ33" s="380"/>
-      <c r="AK33" s="380"/>
-      <c r="AL33" s="380"/>
-      <c r="AM33" s="380"/>
-      <c r="AN33" s="380"/>
-      <c r="AO33" s="380"/>
-      <c r="AP33" s="381"/>
+      <c r="AJ33" s="337"/>
+      <c r="AK33" s="337"/>
+      <c r="AL33" s="337"/>
+      <c r="AM33" s="337"/>
+      <c r="AN33" s="337"/>
+      <c r="AO33" s="337"/>
+      <c r="AP33" s="424"/>
       <c r="AQ33" s="96"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A34" s="321" t="s">
+      <c r="A34" s="327" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="322"/>
-      <c r="C34" s="322"/>
-      <c r="D34" s="322"/>
-      <c r="E34" s="322"/>
-      <c r="F34" s="322"/>
-      <c r="G34" s="322"/>
-      <c r="H34" s="322"/>
-      <c r="I34" s="322"/>
-      <c r="J34" s="322"/>
-      <c r="K34" s="322"/>
-      <c r="L34" s="322"/>
-      <c r="M34" s="322"/>
-      <c r="N34" s="322"/>
-      <c r="O34" s="322"/>
-      <c r="P34" s="322"/>
-      <c r="Q34" s="322"/>
-      <c r="R34" s="322"/>
-      <c r="S34" s="322"/>
-      <c r="T34" s="322"/>
-      <c r="U34" s="322"/>
-      <c r="V34" s="322"/>
-      <c r="W34" s="322"/>
-      <c r="X34" s="322"/>
-      <c r="Y34" s="322"/>
-      <c r="Z34" s="322"/>
-      <c r="AA34" s="322"/>
-      <c r="AB34" s="322"/>
-      <c r="AC34" s="322"/>
-      <c r="AD34" s="322"/>
-      <c r="AE34" s="322"/>
-      <c r="AF34" s="322"/>
-      <c r="AG34" s="322"/>
-      <c r="AH34" s="322"/>
-      <c r="AI34" s="322"/>
-      <c r="AJ34" s="322"/>
-      <c r="AK34" s="322"/>
-      <c r="AL34" s="322"/>
-      <c r="AM34" s="322"/>
-      <c r="AN34" s="322"/>
-      <c r="AO34" s="322"/>
-      <c r="AP34" s="323"/>
+      <c r="B34" s="328"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="328"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
+      <c r="K34" s="328"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
+      <c r="N34" s="328"/>
+      <c r="O34" s="328"/>
+      <c r="P34" s="328"/>
+      <c r="Q34" s="328"/>
+      <c r="R34" s="328"/>
+      <c r="S34" s="328"/>
+      <c r="T34" s="328"/>
+      <c r="U34" s="328"/>
+      <c r="V34" s="328"/>
+      <c r="W34" s="328"/>
+      <c r="X34" s="328"/>
+      <c r="Y34" s="328"/>
+      <c r="Z34" s="328"/>
+      <c r="AA34" s="328"/>
+      <c r="AB34" s="328"/>
+      <c r="AC34" s="328"/>
+      <c r="AD34" s="328"/>
+      <c r="AE34" s="328"/>
+      <c r="AF34" s="328"/>
+      <c r="AG34" s="328"/>
+      <c r="AH34" s="328"/>
+      <c r="AI34" s="328"/>
+      <c r="AJ34" s="328"/>
+      <c r="AK34" s="328"/>
+      <c r="AL34" s="328"/>
+      <c r="AM34" s="328"/>
+      <c r="AN34" s="328"/>
+      <c r="AO34" s="328"/>
+      <c r="AP34" s="412"/>
       <c r="AQ34" s="96"/>
       <c r="AR34" s="89"/>
       <c r="AT34" s="76"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A35" s="382" t="s">
+      <c r="A35" s="322" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="354"/>
-      <c r="C35" s="354"/>
-      <c r="D35" s="354"/>
-      <c r="E35" s="354"/>
-      <c r="F35" s="354"/>
-      <c r="G35" s="354"/>
-      <c r="H35" s="354"/>
-      <c r="I35" s="354"/>
-      <c r="J35" s="354"/>
-      <c r="K35" s="354"/>
-      <c r="L35" s="354"/>
-      <c r="M35" s="354"/>
-      <c r="N35" s="354"/>
-      <c r="O35" s="354"/>
-      <c r="P35" s="354"/>
-      <c r="Q35" s="354"/>
-      <c r="R35" s="354"/>
-      <c r="S35" s="355"/>
-      <c r="T35" s="356" t="s">
+      <c r="B35" s="323"/>
+      <c r="C35" s="323"/>
+      <c r="D35" s="323"/>
+      <c r="E35" s="323"/>
+      <c r="F35" s="323"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="323"/>
+      <c r="I35" s="323"/>
+      <c r="J35" s="323"/>
+      <c r="K35" s="323"/>
+      <c r="L35" s="323"/>
+      <c r="M35" s="323"/>
+      <c r="N35" s="323"/>
+      <c r="O35" s="323"/>
+      <c r="P35" s="323"/>
+      <c r="Q35" s="323"/>
+      <c r="R35" s="323"/>
+      <c r="S35" s="324"/>
+      <c r="T35" s="300" t="s">
         <v>50</v>
       </c>
-      <c r="U35" s="358"/>
-      <c r="V35" s="358"/>
-      <c r="W35" s="358"/>
-      <c r="X35" s="358"/>
-      <c r="Y35" s="358"/>
-      <c r="Z35" s="358"/>
-      <c r="AA35" s="357"/>
-      <c r="AB35" s="356" t="s">
+      <c r="U35" s="301"/>
+      <c r="V35" s="301"/>
+      <c r="W35" s="301"/>
+      <c r="X35" s="301"/>
+      <c r="Y35" s="301"/>
+      <c r="Z35" s="301"/>
+      <c r="AA35" s="302"/>
+      <c r="AB35" s="300" t="s">
         <v>51</v>
       </c>
-      <c r="AC35" s="358"/>
-      <c r="AD35" s="358"/>
-      <c r="AE35" s="358"/>
-      <c r="AF35" s="358"/>
-      <c r="AG35" s="357"/>
-      <c r="AH35" s="356" t="s">
+      <c r="AC35" s="301"/>
+      <c r="AD35" s="301"/>
+      <c r="AE35" s="301"/>
+      <c r="AF35" s="301"/>
+      <c r="AG35" s="302"/>
+      <c r="AH35" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AI35" s="357"/>
-      <c r="AJ35" s="356" t="s">
+      <c r="AI35" s="302"/>
+      <c r="AJ35" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="AK35" s="358"/>
-      <c r="AL35" s="358"/>
-      <c r="AM35" s="358"/>
-      <c r="AN35" s="358"/>
-      <c r="AO35" s="358"/>
-      <c r="AP35" s="359"/>
+      <c r="AK35" s="301"/>
+      <c r="AL35" s="301"/>
+      <c r="AM35" s="301"/>
+      <c r="AN35" s="301"/>
+      <c r="AO35" s="301"/>
+      <c r="AP35" s="335"/>
       <c r="AQ35" s="96"/>
       <c r="AT35" s="205"/>
     </row>
     <row r="36" spans="1:46" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="330"/>
-      <c r="B36" s="331"/>
-      <c r="C36" s="331"/>
-      <c r="D36" s="331"/>
-      <c r="E36" s="331"/>
-      <c r="F36" s="331"/>
-      <c r="G36" s="331"/>
-      <c r="H36" s="331"/>
-      <c r="I36" s="331"/>
-      <c r="J36" s="331"/>
-      <c r="K36" s="331"/>
-      <c r="L36" s="331"/>
-      <c r="M36" s="331"/>
-      <c r="N36" s="331"/>
-      <c r="O36" s="331"/>
-      <c r="P36" s="331"/>
-      <c r="Q36" s="331"/>
-      <c r="R36" s="331"/>
-      <c r="S36" s="332"/>
-      <c r="T36" s="369" t="s">
+      <c r="A36" s="430"/>
+      <c r="B36" s="431"/>
+      <c r="C36" s="431"/>
+      <c r="D36" s="431"/>
+      <c r="E36" s="431"/>
+      <c r="F36" s="431"/>
+      <c r="G36" s="431"/>
+      <c r="H36" s="431"/>
+      <c r="I36" s="431"/>
+      <c r="J36" s="431"/>
+      <c r="K36" s="431"/>
+      <c r="L36" s="431"/>
+      <c r="M36" s="431"/>
+      <c r="N36" s="431"/>
+      <c r="O36" s="431"/>
+      <c r="P36" s="431"/>
+      <c r="Q36" s="431"/>
+      <c r="R36" s="431"/>
+      <c r="S36" s="432"/>
+      <c r="T36" s="436" t="s">
         <v>90</v>
       </c>
-      <c r="U36" s="370"/>
-      <c r="V36" s="370"/>
-      <c r="W36" s="370"/>
-      <c r="X36" s="370"/>
-      <c r="Y36" s="373"/>
-      <c r="Z36" s="374"/>
-      <c r="AA36" s="376"/>
-      <c r="AB36" s="334"/>
-      <c r="AC36" s="342"/>
-      <c r="AD36" s="342"/>
-      <c r="AE36" s="342"/>
-      <c r="AF36" s="342"/>
-      <c r="AG36" s="335"/>
-      <c r="AH36" s="334"/>
-      <c r="AI36" s="335"/>
-      <c r="AJ36" s="329"/>
-      <c r="AK36" s="314"/>
-      <c r="AL36" s="314"/>
-      <c r="AM36" s="314"/>
-      <c r="AN36" s="314"/>
-      <c r="AO36" s="314"/>
-      <c r="AP36" s="315"/>
+      <c r="U36" s="437"/>
+      <c r="V36" s="437"/>
+      <c r="W36" s="437"/>
+      <c r="X36" s="437"/>
+      <c r="Y36" s="440"/>
+      <c r="Z36" s="441"/>
+      <c r="AA36" s="444"/>
+      <c r="AB36" s="445"/>
+      <c r="AC36" s="446"/>
+      <c r="AD36" s="446"/>
+      <c r="AE36" s="446"/>
+      <c r="AF36" s="446"/>
+      <c r="AG36" s="447"/>
+      <c r="AH36" s="445"/>
+      <c r="AI36" s="447"/>
+      <c r="AJ36" s="448"/>
+      <c r="AK36" s="449"/>
+      <c r="AL36" s="449"/>
+      <c r="AM36" s="449"/>
+      <c r="AN36" s="449"/>
+      <c r="AO36" s="449"/>
+      <c r="AP36" s="450"/>
       <c r="AQ36" s="96"/>
     </row>
     <row r="37" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="330"/>
-      <c r="B37" s="331"/>
-      <c r="C37" s="331"/>
-      <c r="D37" s="331"/>
-      <c r="E37" s="331"/>
-      <c r="F37" s="331"/>
-      <c r="G37" s="331"/>
-      <c r="H37" s="331"/>
-      <c r="I37" s="331"/>
-      <c r="J37" s="331"/>
-      <c r="K37" s="331"/>
-      <c r="L37" s="331"/>
-      <c r="M37" s="331"/>
-      <c r="N37" s="331"/>
-      <c r="O37" s="331"/>
-      <c r="P37" s="331"/>
-      <c r="Q37" s="331"/>
-      <c r="R37" s="331"/>
-      <c r="S37" s="332"/>
-      <c r="T37" s="369"/>
-      <c r="U37" s="370"/>
-      <c r="V37" s="370"/>
-      <c r="W37" s="370"/>
-      <c r="X37" s="370"/>
-      <c r="Y37" s="346"/>
-      <c r="Z37" s="375"/>
-      <c r="AA37" s="376"/>
-      <c r="AB37" s="334"/>
-      <c r="AC37" s="342"/>
-      <c r="AD37" s="342"/>
-      <c r="AE37" s="342"/>
-      <c r="AF37" s="342"/>
-      <c r="AG37" s="335"/>
-      <c r="AH37" s="334"/>
-      <c r="AI37" s="335"/>
-      <c r="AJ37" s="329"/>
-      <c r="AK37" s="314"/>
-      <c r="AL37" s="314"/>
-      <c r="AM37" s="314"/>
-      <c r="AN37" s="314"/>
-      <c r="AO37" s="314"/>
-      <c r="AP37" s="315"/>
+      <c r="A37" s="430"/>
+      <c r="B37" s="431"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="431"/>
+      <c r="E37" s="431"/>
+      <c r="F37" s="431"/>
+      <c r="G37" s="431"/>
+      <c r="H37" s="431"/>
+      <c r="I37" s="431"/>
+      <c r="J37" s="431"/>
+      <c r="K37" s="431"/>
+      <c r="L37" s="431"/>
+      <c r="M37" s="431"/>
+      <c r="N37" s="431"/>
+      <c r="O37" s="431"/>
+      <c r="P37" s="431"/>
+      <c r="Q37" s="431"/>
+      <c r="R37" s="431"/>
+      <c r="S37" s="432"/>
+      <c r="T37" s="436"/>
+      <c r="U37" s="437"/>
+      <c r="V37" s="437"/>
+      <c r="W37" s="437"/>
+      <c r="X37" s="437"/>
+      <c r="Y37" s="442"/>
+      <c r="Z37" s="443"/>
+      <c r="AA37" s="444"/>
+      <c r="AB37" s="445"/>
+      <c r="AC37" s="446"/>
+      <c r="AD37" s="446"/>
+      <c r="AE37" s="446"/>
+      <c r="AF37" s="446"/>
+      <c r="AG37" s="447"/>
+      <c r="AH37" s="445"/>
+      <c r="AI37" s="447"/>
+      <c r="AJ37" s="448"/>
+      <c r="AK37" s="449"/>
+      <c r="AL37" s="449"/>
+      <c r="AM37" s="449"/>
+      <c r="AN37" s="449"/>
+      <c r="AO37" s="449"/>
+      <c r="AP37" s="450"/>
       <c r="AQ37" s="96"/>
       <c r="AR37" s="89"/>
     </row>
     <row r="38" spans="1:46" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="366"/>
-      <c r="B38" s="367"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="367"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
-      <c r="I38" s="367"/>
-      <c r="J38" s="367"/>
-      <c r="K38" s="367"/>
-      <c r="L38" s="367"/>
-      <c r="M38" s="367"/>
-      <c r="N38" s="367"/>
-      <c r="O38" s="367"/>
-      <c r="P38" s="367"/>
-      <c r="Q38" s="367"/>
-      <c r="R38" s="367"/>
-      <c r="S38" s="368"/>
-      <c r="T38" s="371"/>
-      <c r="U38" s="372"/>
-      <c r="V38" s="372"/>
-      <c r="W38" s="372"/>
-      <c r="X38" s="372"/>
-      <c r="Y38" s="349"/>
-      <c r="Z38" s="349"/>
-      <c r="AA38" s="350"/>
-      <c r="AB38" s="343"/>
-      <c r="AC38" s="344"/>
-      <c r="AD38" s="344"/>
-      <c r="AE38" s="344"/>
-      <c r="AF38" s="344"/>
-      <c r="AG38" s="345"/>
-      <c r="AH38" s="343"/>
-      <c r="AI38" s="345"/>
-      <c r="AJ38" s="346"/>
-      <c r="AK38" s="347"/>
-      <c r="AL38" s="347"/>
-      <c r="AM38" s="347"/>
-      <c r="AN38" s="347"/>
-      <c r="AO38" s="347"/>
-      <c r="AP38" s="348"/>
+      <c r="A38" s="433"/>
+      <c r="B38" s="434"/>
+      <c r="C38" s="434"/>
+      <c r="D38" s="434"/>
+      <c r="E38" s="434"/>
+      <c r="F38" s="434"/>
+      <c r="G38" s="434"/>
+      <c r="H38" s="434"/>
+      <c r="I38" s="434"/>
+      <c r="J38" s="434"/>
+      <c r="K38" s="434"/>
+      <c r="L38" s="434"/>
+      <c r="M38" s="434"/>
+      <c r="N38" s="434"/>
+      <c r="O38" s="434"/>
+      <c r="P38" s="434"/>
+      <c r="Q38" s="434"/>
+      <c r="R38" s="434"/>
+      <c r="S38" s="435"/>
+      <c r="T38" s="438"/>
+      <c r="U38" s="439"/>
+      <c r="V38" s="439"/>
+      <c r="W38" s="439"/>
+      <c r="X38" s="439"/>
+      <c r="Y38" s="453"/>
+      <c r="Z38" s="453"/>
+      <c r="AA38" s="454"/>
+      <c r="AB38" s="371"/>
+      <c r="AC38" s="372"/>
+      <c r="AD38" s="372"/>
+      <c r="AE38" s="372"/>
+      <c r="AF38" s="372"/>
+      <c r="AG38" s="373"/>
+      <c r="AH38" s="371"/>
+      <c r="AI38" s="373"/>
+      <c r="AJ38" s="442"/>
+      <c r="AK38" s="451"/>
+      <c r="AL38" s="451"/>
+      <c r="AM38" s="451"/>
+      <c r="AN38" s="451"/>
+      <c r="AO38" s="451"/>
+      <c r="AP38" s="452"/>
       <c r="AQ38" s="96"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A39" s="351" t="s">
+      <c r="A39" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="324"/>
-      <c r="I39" s="324"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="324"/>
-      <c r="L39" s="324"/>
-      <c r="M39" s="324"/>
-      <c r="N39" s="324"/>
-      <c r="O39" s="324"/>
-      <c r="P39" s="324"/>
-      <c r="Q39" s="324"/>
-      <c r="R39" s="324"/>
-      <c r="S39" s="352"/>
-      <c r="T39" s="353" t="s">
+      <c r="B39" s="427"/>
+      <c r="C39" s="427"/>
+      <c r="D39" s="427"/>
+      <c r="E39" s="427"/>
+      <c r="F39" s="427"/>
+      <c r="G39" s="427"/>
+      <c r="H39" s="427"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="427"/>
+      <c r="K39" s="427"/>
+      <c r="L39" s="427"/>
+      <c r="M39" s="427"/>
+      <c r="N39" s="427"/>
+      <c r="O39" s="427"/>
+      <c r="P39" s="427"/>
+      <c r="Q39" s="427"/>
+      <c r="R39" s="427"/>
+      <c r="S39" s="428"/>
+      <c r="T39" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="354"/>
-      <c r="V39" s="354"/>
-      <c r="W39" s="354"/>
-      <c r="X39" s="354"/>
-      <c r="Y39" s="354"/>
-      <c r="Z39" s="354"/>
-      <c r="AA39" s="354"/>
-      <c r="AB39" s="354"/>
-      <c r="AC39" s="354"/>
-      <c r="AD39" s="354"/>
-      <c r="AE39" s="354"/>
-      <c r="AF39" s="354"/>
-      <c r="AG39" s="355"/>
-      <c r="AH39" s="356" t="s">
+      <c r="U39" s="323"/>
+      <c r="V39" s="323"/>
+      <c r="W39" s="323"/>
+      <c r="X39" s="323"/>
+      <c r="Y39" s="323"/>
+      <c r="Z39" s="323"/>
+      <c r="AA39" s="323"/>
+      <c r="AB39" s="323"/>
+      <c r="AC39" s="323"/>
+      <c r="AD39" s="323"/>
+      <c r="AE39" s="323"/>
+      <c r="AF39" s="323"/>
+      <c r="AG39" s="324"/>
+      <c r="AH39" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AI39" s="357"/>
-      <c r="AJ39" s="356" t="s">
+      <c r="AI39" s="302"/>
+      <c r="AJ39" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AK39" s="358"/>
-      <c r="AL39" s="358"/>
-      <c r="AM39" s="358"/>
-      <c r="AN39" s="358"/>
-      <c r="AO39" s="358"/>
-      <c r="AP39" s="359"/>
+      <c r="AK39" s="301"/>
+      <c r="AL39" s="301"/>
+      <c r="AM39" s="301"/>
+      <c r="AN39" s="301"/>
+      <c r="AO39" s="301"/>
+      <c r="AP39" s="335"/>
       <c r="AQ39" s="96"/>
     </row>
     <row r="40" spans="1:46" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="330"/>
-      <c r="B40" s="331"/>
-      <c r="C40" s="331"/>
-      <c r="D40" s="331"/>
-      <c r="E40" s="331"/>
-      <c r="F40" s="331"/>
-      <c r="G40" s="331"/>
-      <c r="H40" s="331"/>
-      <c r="I40" s="331"/>
-      <c r="J40" s="331"/>
-      <c r="K40" s="331"/>
-      <c r="L40" s="331"/>
-      <c r="M40" s="331"/>
-      <c r="N40" s="331"/>
-      <c r="O40" s="331"/>
-      <c r="P40" s="331"/>
-      <c r="Q40" s="331"/>
-      <c r="R40" s="331"/>
-      <c r="S40" s="332"/>
-      <c r="T40" s="333"/>
-      <c r="U40" s="331"/>
-      <c r="V40" s="331"/>
-      <c r="W40" s="331"/>
-      <c r="X40" s="331"/>
-      <c r="Y40" s="331"/>
-      <c r="Z40" s="331"/>
-      <c r="AA40" s="331"/>
-      <c r="AB40" s="331"/>
-      <c r="AC40" s="331"/>
-      <c r="AD40" s="331"/>
-      <c r="AE40" s="331"/>
-      <c r="AF40" s="331"/>
-      <c r="AG40" s="332"/>
-      <c r="AH40" s="334"/>
-      <c r="AI40" s="335"/>
-      <c r="AJ40" s="336"/>
-      <c r="AK40" s="314"/>
-      <c r="AL40" s="314"/>
-      <c r="AM40" s="314"/>
-      <c r="AN40" s="314"/>
-      <c r="AO40" s="314"/>
-      <c r="AP40" s="315"/>
+      <c r="A40" s="430"/>
+      <c r="B40" s="431"/>
+      <c r="C40" s="431"/>
+      <c r="D40" s="431"/>
+      <c r="E40" s="431"/>
+      <c r="F40" s="431"/>
+      <c r="G40" s="431"/>
+      <c r="H40" s="431"/>
+      <c r="I40" s="431"/>
+      <c r="J40" s="431"/>
+      <c r="K40" s="431"/>
+      <c r="L40" s="431"/>
+      <c r="M40" s="431"/>
+      <c r="N40" s="431"/>
+      <c r="O40" s="431"/>
+      <c r="P40" s="431"/>
+      <c r="Q40" s="431"/>
+      <c r="R40" s="431"/>
+      <c r="S40" s="432"/>
+      <c r="T40" s="458"/>
+      <c r="U40" s="431"/>
+      <c r="V40" s="431"/>
+      <c r="W40" s="431"/>
+      <c r="X40" s="431"/>
+      <c r="Y40" s="431"/>
+      <c r="Z40" s="431"/>
+      <c r="AA40" s="431"/>
+      <c r="AB40" s="431"/>
+      <c r="AC40" s="431"/>
+      <c r="AD40" s="431"/>
+      <c r="AE40" s="431"/>
+      <c r="AF40" s="431"/>
+      <c r="AG40" s="432"/>
+      <c r="AH40" s="445"/>
+      <c r="AI40" s="447"/>
+      <c r="AJ40" s="459"/>
+      <c r="AK40" s="449"/>
+      <c r="AL40" s="449"/>
+      <c r="AM40" s="449"/>
+      <c r="AN40" s="449"/>
+      <c r="AO40" s="449"/>
+      <c r="AP40" s="450"/>
       <c r="AQ40" s="96"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A41" s="330"/>
-      <c r="B41" s="331"/>
-      <c r="C41" s="331"/>
-      <c r="D41" s="331"/>
-      <c r="E41" s="331"/>
-      <c r="F41" s="331"/>
-      <c r="G41" s="331"/>
-      <c r="H41" s="331"/>
-      <c r="I41" s="331"/>
-      <c r="J41" s="331"/>
-      <c r="K41" s="331"/>
-      <c r="L41" s="331"/>
-      <c r="M41" s="331"/>
-      <c r="N41" s="331"/>
-      <c r="O41" s="331"/>
-      <c r="P41" s="331"/>
-      <c r="Q41" s="331"/>
-      <c r="R41" s="331"/>
-      <c r="S41" s="332"/>
-      <c r="T41" s="333"/>
-      <c r="U41" s="331"/>
-      <c r="V41" s="331"/>
-      <c r="W41" s="331"/>
-      <c r="X41" s="331"/>
-      <c r="Y41" s="331"/>
-      <c r="Z41" s="331"/>
-      <c r="AA41" s="331"/>
-      <c r="AB41" s="331"/>
-      <c r="AC41" s="331"/>
-      <c r="AD41" s="331"/>
-      <c r="AE41" s="331"/>
-      <c r="AF41" s="331"/>
-      <c r="AG41" s="332"/>
-      <c r="AH41" s="334"/>
-      <c r="AI41" s="335"/>
-      <c r="AJ41" s="329"/>
-      <c r="AK41" s="314"/>
-      <c r="AL41" s="314"/>
-      <c r="AM41" s="314"/>
-      <c r="AN41" s="314"/>
-      <c r="AO41" s="314"/>
-      <c r="AP41" s="315"/>
+      <c r="A41" s="430"/>
+      <c r="B41" s="431"/>
+      <c r="C41" s="431"/>
+      <c r="D41" s="431"/>
+      <c r="E41" s="431"/>
+      <c r="F41" s="431"/>
+      <c r="G41" s="431"/>
+      <c r="H41" s="431"/>
+      <c r="I41" s="431"/>
+      <c r="J41" s="431"/>
+      <c r="K41" s="431"/>
+      <c r="L41" s="431"/>
+      <c r="M41" s="431"/>
+      <c r="N41" s="431"/>
+      <c r="O41" s="431"/>
+      <c r="P41" s="431"/>
+      <c r="Q41" s="431"/>
+      <c r="R41" s="431"/>
+      <c r="S41" s="432"/>
+      <c r="T41" s="458"/>
+      <c r="U41" s="431"/>
+      <c r="V41" s="431"/>
+      <c r="W41" s="431"/>
+      <c r="X41" s="431"/>
+      <c r="Y41" s="431"/>
+      <c r="Z41" s="431"/>
+      <c r="AA41" s="431"/>
+      <c r="AB41" s="431"/>
+      <c r="AC41" s="431"/>
+      <c r="AD41" s="431"/>
+      <c r="AE41" s="431"/>
+      <c r="AF41" s="431"/>
+      <c r="AG41" s="432"/>
+      <c r="AH41" s="445"/>
+      <c r="AI41" s="447"/>
+      <c r="AJ41" s="448"/>
+      <c r="AK41" s="449"/>
+      <c r="AL41" s="449"/>
+      <c r="AM41" s="449"/>
+      <c r="AN41" s="449"/>
+      <c r="AO41" s="449"/>
+      <c r="AP41" s="450"/>
       <c r="AQ41" s="96"/>
     </row>
     <row r="42" spans="1:46" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="337" t="s">
+      <c r="A42" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="338"/>
-      <c r="C42" s="338"/>
-      <c r="D42" s="338"/>
-      <c r="E42" s="339"/>
-      <c r="F42" s="340" t="s">
+      <c r="B42" s="369"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="369"/>
+      <c r="E42" s="370"/>
+      <c r="F42" s="368" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="338"/>
-      <c r="H42" s="338"/>
-      <c r="I42" s="338"/>
-      <c r="J42" s="338"/>
-      <c r="K42" s="339"/>
-      <c r="L42" s="340" t="s">
+      <c r="G42" s="369"/>
+      <c r="H42" s="369"/>
+      <c r="I42" s="369"/>
+      <c r="J42" s="369"/>
+      <c r="K42" s="370"/>
+      <c r="L42" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="338"/>
-      <c r="N42" s="338"/>
-      <c r="O42" s="338"/>
-      <c r="P42" s="338"/>
-      <c r="Q42" s="338"/>
-      <c r="R42" s="339"/>
-      <c r="S42" s="340" t="s">
+      <c r="M42" s="369"/>
+      <c r="N42" s="369"/>
+      <c r="O42" s="369"/>
+      <c r="P42" s="369"/>
+      <c r="Q42" s="369"/>
+      <c r="R42" s="370"/>
+      <c r="S42" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="T42" s="338"/>
-      <c r="U42" s="338"/>
-      <c r="V42" s="338"/>
-      <c r="W42" s="338"/>
-      <c r="X42" s="338"/>
-      <c r="Y42" s="338"/>
-      <c r="Z42" s="339"/>
-      <c r="AA42" s="340" t="s">
+      <c r="T42" s="369"/>
+      <c r="U42" s="369"/>
+      <c r="V42" s="369"/>
+      <c r="W42" s="369"/>
+      <c r="X42" s="369"/>
+      <c r="Y42" s="369"/>
+      <c r="Z42" s="370"/>
+      <c r="AA42" s="368" t="s">
         <v>55</v>
       </c>
-      <c r="AB42" s="338"/>
-      <c r="AC42" s="338"/>
-      <c r="AD42" s="338"/>
-      <c r="AE42" s="338"/>
-      <c r="AF42" s="338"/>
-      <c r="AG42" s="338"/>
-      <c r="AH42" s="339"/>
-      <c r="AI42" s="340" t="s">
+      <c r="AB42" s="369"/>
+      <c r="AC42" s="369"/>
+      <c r="AD42" s="369"/>
+      <c r="AE42" s="369"/>
+      <c r="AF42" s="369"/>
+      <c r="AG42" s="369"/>
+      <c r="AH42" s="370"/>
+      <c r="AI42" s="368" t="s">
         <v>56</v>
       </c>
-      <c r="AJ42" s="338"/>
-      <c r="AK42" s="338"/>
-      <c r="AL42" s="338"/>
-      <c r="AM42" s="338"/>
-      <c r="AN42" s="338"/>
-      <c r="AO42" s="338"/>
-      <c r="AP42" s="341"/>
+      <c r="AJ42" s="369"/>
+      <c r="AK42" s="369"/>
+      <c r="AL42" s="369"/>
+      <c r="AM42" s="369"/>
+      <c r="AN42" s="369"/>
+      <c r="AO42" s="369"/>
+      <c r="AP42" s="382"/>
       <c r="AQ42" s="99"/>
       <c r="AR42" s="81"/>
     </row>
     <row r="43" spans="1:46" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="327"/>
-      <c r="B43" s="314"/>
-      <c r="C43" s="314"/>
-      <c r="D43" s="314"/>
-      <c r="E43" s="328"/>
-      <c r="F43" s="329"/>
-      <c r="G43" s="314"/>
-      <c r="H43" s="314"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="314"/>
-      <c r="K43" s="328"/>
-      <c r="L43" s="329"/>
-      <c r="M43" s="314"/>
-      <c r="N43" s="314"/>
-      <c r="O43" s="314"/>
-      <c r="P43" s="314"/>
-      <c r="Q43" s="314"/>
-      <c r="R43" s="328"/>
-      <c r="S43" s="329"/>
-      <c r="T43" s="314"/>
-      <c r="U43" s="314"/>
-      <c r="V43" s="314"/>
-      <c r="W43" s="314"/>
-      <c r="X43" s="314"/>
-      <c r="Y43" s="314"/>
-      <c r="Z43" s="328"/>
-      <c r="AA43" s="312"/>
-      <c r="AB43" s="313"/>
-      <c r="AC43" s="313"/>
-      <c r="AD43" s="313"/>
-      <c r="AE43" s="313"/>
-      <c r="AF43" s="313"/>
-      <c r="AG43" s="314"/>
-      <c r="AH43" s="328"/>
-      <c r="AI43" s="312"/>
-      <c r="AJ43" s="313"/>
-      <c r="AK43" s="313"/>
-      <c r="AL43" s="313"/>
-      <c r="AM43" s="313"/>
-      <c r="AN43" s="313"/>
-      <c r="AO43" s="314"/>
-      <c r="AP43" s="315"/>
+      <c r="A43" s="463"/>
+      <c r="B43" s="449"/>
+      <c r="C43" s="449"/>
+      <c r="D43" s="449"/>
+      <c r="E43" s="457"/>
+      <c r="F43" s="448"/>
+      <c r="G43" s="449"/>
+      <c r="H43" s="449"/>
+      <c r="I43" s="449"/>
+      <c r="J43" s="449"/>
+      <c r="K43" s="457"/>
+      <c r="L43" s="448"/>
+      <c r="M43" s="449"/>
+      <c r="N43" s="449"/>
+      <c r="O43" s="449"/>
+      <c r="P43" s="449"/>
+      <c r="Q43" s="449"/>
+      <c r="R43" s="457"/>
+      <c r="S43" s="448"/>
+      <c r="T43" s="449"/>
+      <c r="U43" s="449"/>
+      <c r="V43" s="449"/>
+      <c r="W43" s="449"/>
+      <c r="X43" s="449"/>
+      <c r="Y43" s="449"/>
+      <c r="Z43" s="457"/>
+      <c r="AA43" s="455"/>
+      <c r="AB43" s="456"/>
+      <c r="AC43" s="456"/>
+      <c r="AD43" s="456"/>
+      <c r="AE43" s="456"/>
+      <c r="AF43" s="456"/>
+      <c r="AG43" s="449"/>
+      <c r="AH43" s="457"/>
+      <c r="AI43" s="455"/>
+      <c r="AJ43" s="456"/>
+      <c r="AK43" s="456"/>
+      <c r="AL43" s="456"/>
+      <c r="AM43" s="456"/>
+      <c r="AN43" s="456"/>
+      <c r="AO43" s="449"/>
+      <c r="AP43" s="450"/>
       <c r="AQ43" s="96"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A44" s="327"/>
-      <c r="B44" s="314"/>
-      <c r="C44" s="314"/>
-      <c r="D44" s="314"/>
-      <c r="E44" s="328"/>
-      <c r="F44" s="329"/>
-      <c r="G44" s="314"/>
-      <c r="H44" s="314"/>
-      <c r="I44" s="314"/>
-      <c r="J44" s="314"/>
-      <c r="K44" s="328"/>
-      <c r="L44" s="329"/>
-      <c r="M44" s="314"/>
-      <c r="N44" s="314"/>
-      <c r="O44" s="314"/>
-      <c r="P44" s="314"/>
-      <c r="Q44" s="314"/>
-      <c r="R44" s="328"/>
-      <c r="S44" s="329"/>
-      <c r="T44" s="314"/>
-      <c r="U44" s="314"/>
-      <c r="V44" s="314"/>
-      <c r="W44" s="314"/>
-      <c r="X44" s="314"/>
-      <c r="Y44" s="314"/>
-      <c r="Z44" s="328"/>
-      <c r="AA44" s="312"/>
-      <c r="AB44" s="313"/>
-      <c r="AC44" s="313"/>
-      <c r="AD44" s="313"/>
-      <c r="AE44" s="313"/>
-      <c r="AF44" s="313"/>
-      <c r="AG44" s="314"/>
-      <c r="AH44" s="328"/>
-      <c r="AI44" s="312"/>
-      <c r="AJ44" s="313"/>
-      <c r="AK44" s="313"/>
-      <c r="AL44" s="313"/>
-      <c r="AM44" s="313"/>
-      <c r="AN44" s="313"/>
-      <c r="AO44" s="314"/>
-      <c r="AP44" s="315"/>
+      <c r="A44" s="463"/>
+      <c r="B44" s="449"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="449"/>
+      <c r="E44" s="457"/>
+      <c r="F44" s="448"/>
+      <c r="G44" s="449"/>
+      <c r="H44" s="449"/>
+      <c r="I44" s="449"/>
+      <c r="J44" s="449"/>
+      <c r="K44" s="457"/>
+      <c r="L44" s="448"/>
+      <c r="M44" s="449"/>
+      <c r="N44" s="449"/>
+      <c r="O44" s="449"/>
+      <c r="P44" s="449"/>
+      <c r="Q44" s="449"/>
+      <c r="R44" s="457"/>
+      <c r="S44" s="448"/>
+      <c r="T44" s="449"/>
+      <c r="U44" s="449"/>
+      <c r="V44" s="449"/>
+      <c r="W44" s="449"/>
+      <c r="X44" s="449"/>
+      <c r="Y44" s="449"/>
+      <c r="Z44" s="457"/>
+      <c r="AA44" s="455"/>
+      <c r="AB44" s="456"/>
+      <c r="AC44" s="456"/>
+      <c r="AD44" s="456"/>
+      <c r="AE44" s="456"/>
+      <c r="AF44" s="456"/>
+      <c r="AG44" s="449"/>
+      <c r="AH44" s="457"/>
+      <c r="AI44" s="455"/>
+      <c r="AJ44" s="456"/>
+      <c r="AK44" s="456"/>
+      <c r="AL44" s="456"/>
+      <c r="AM44" s="456"/>
+      <c r="AN44" s="456"/>
+      <c r="AO44" s="449"/>
+      <c r="AP44" s="450"/>
       <c r="AQ44" s="96"/>
     </row>
     <row r="45" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="321" t="s">
+      <c r="A45" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="322"/>
-      <c r="C45" s="322"/>
-      <c r="D45" s="322"/>
-      <c r="E45" s="322"/>
-      <c r="F45" s="322"/>
-      <c r="G45" s="322"/>
-      <c r="H45" s="322"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="322"/>
-      <c r="K45" s="322"/>
-      <c r="L45" s="322"/>
-      <c r="M45" s="322"/>
-      <c r="N45" s="322"/>
-      <c r="O45" s="322"/>
-      <c r="P45" s="322"/>
-      <c r="Q45" s="322"/>
-      <c r="R45" s="322"/>
-      <c r="S45" s="322"/>
-      <c r="T45" s="322"/>
-      <c r="U45" s="322"/>
-      <c r="V45" s="322"/>
-      <c r="W45" s="322"/>
-      <c r="X45" s="322"/>
-      <c r="Y45" s="322"/>
-      <c r="Z45" s="322"/>
-      <c r="AA45" s="322"/>
-      <c r="AB45" s="322"/>
-      <c r="AC45" s="322"/>
-      <c r="AD45" s="322"/>
-      <c r="AE45" s="322"/>
-      <c r="AF45" s="322"/>
-      <c r="AG45" s="322"/>
-      <c r="AH45" s="322"/>
-      <c r="AI45" s="322"/>
-      <c r="AJ45" s="322"/>
-      <c r="AK45" s="322"/>
-      <c r="AL45" s="322"/>
-      <c r="AM45" s="322"/>
-      <c r="AN45" s="322"/>
-      <c r="AO45" s="322"/>
-      <c r="AP45" s="323"/>
+      <c r="B45" s="328"/>
+      <c r="C45" s="328"/>
+      <c r="D45" s="328"/>
+      <c r="E45" s="328"/>
+      <c r="F45" s="328"/>
+      <c r="G45" s="328"/>
+      <c r="H45" s="328"/>
+      <c r="I45" s="328"/>
+      <c r="J45" s="328"/>
+      <c r="K45" s="328"/>
+      <c r="L45" s="328"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="328"/>
+      <c r="P45" s="328"/>
+      <c r="Q45" s="328"/>
+      <c r="R45" s="328"/>
+      <c r="S45" s="328"/>
+      <c r="T45" s="328"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="328"/>
+      <c r="W45" s="328"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="328"/>
+      <c r="Z45" s="328"/>
+      <c r="AA45" s="328"/>
+      <c r="AB45" s="328"/>
+      <c r="AC45" s="328"/>
+      <c r="AD45" s="328"/>
+      <c r="AE45" s="328"/>
+      <c r="AF45" s="328"/>
+      <c r="AG45" s="328"/>
+      <c r="AH45" s="328"/>
+      <c r="AI45" s="328"/>
+      <c r="AJ45" s="328"/>
+      <c r="AK45" s="328"/>
+      <c r="AL45" s="328"/>
+      <c r="AM45" s="328"/>
+      <c r="AN45" s="328"/>
+      <c r="AO45" s="328"/>
+      <c r="AP45" s="412"/>
       <c r="AQ45" s="96"/>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A46" s="326" t="s">
+      <c r="A46" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="301"/>
-      <c r="C46" s="301"/>
-      <c r="D46" s="301"/>
-      <c r="E46" s="301"/>
-      <c r="F46" s="301"/>
-      <c r="G46" s="301"/>
-      <c r="H46" s="301"/>
-      <c r="I46" s="300" t="e">
+      <c r="B46" s="462"/>
+      <c r="C46" s="462"/>
+      <c r="D46" s="462"/>
+      <c r="E46" s="462"/>
+      <c r="F46" s="462"/>
+      <c r="G46" s="462"/>
+      <c r="H46" s="462"/>
+      <c r="I46" s="483" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J46" s="301"/>
-      <c r="K46" s="301"/>
-      <c r="L46" s="301"/>
-      <c r="M46" s="302"/>
-      <c r="N46" s="324"/>
-      <c r="O46" s="324"/>
-      <c r="P46" s="324"/>
-      <c r="Q46" s="324"/>
-      <c r="R46" s="324"/>
-      <c r="S46" s="324"/>
-      <c r="T46" s="324"/>
-      <c r="U46" s="324"/>
-      <c r="V46" s="324"/>
-      <c r="W46" s="324"/>
-      <c r="X46" s="324"/>
-      <c r="Y46" s="324"/>
-      <c r="Z46" s="324"/>
-      <c r="AA46" s="324"/>
-      <c r="AB46" s="324"/>
-      <c r="AC46" s="324"/>
-      <c r="AD46" s="324"/>
-      <c r="AE46" s="324"/>
-      <c r="AF46" s="324"/>
-      <c r="AG46" s="324"/>
-      <c r="AH46" s="324"/>
-      <c r="AI46" s="324"/>
-      <c r="AJ46" s="324"/>
-      <c r="AK46" s="324"/>
-      <c r="AL46" s="324"/>
-      <c r="AM46" s="324"/>
-      <c r="AN46" s="324"/>
-      <c r="AO46" s="324"/>
-      <c r="AP46" s="325"/>
+      <c r="J46" s="462"/>
+      <c r="K46" s="462"/>
+      <c r="L46" s="462"/>
+      <c r="M46" s="484"/>
+      <c r="N46" s="427"/>
+      <c r="O46" s="427"/>
+      <c r="P46" s="427"/>
+      <c r="Q46" s="427"/>
+      <c r="R46" s="427"/>
+      <c r="S46" s="427"/>
+      <c r="T46" s="427"/>
+      <c r="U46" s="427"/>
+      <c r="V46" s="427"/>
+      <c r="W46" s="427"/>
+      <c r="X46" s="427"/>
+      <c r="Y46" s="427"/>
+      <c r="Z46" s="427"/>
+      <c r="AA46" s="427"/>
+      <c r="AB46" s="427"/>
+      <c r="AC46" s="427"/>
+      <c r="AD46" s="427"/>
+      <c r="AE46" s="427"/>
+      <c r="AF46" s="427"/>
+      <c r="AG46" s="427"/>
+      <c r="AH46" s="427"/>
+      <c r="AI46" s="427"/>
+      <c r="AJ46" s="427"/>
+      <c r="AK46" s="427"/>
+      <c r="AL46" s="427"/>
+      <c r="AM46" s="427"/>
+      <c r="AN46" s="427"/>
+      <c r="AO46" s="427"/>
+      <c r="AP46" s="468"/>
       <c r="AQ46" s="96"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A47" s="326" t="s">
+      <c r="A47" s="461" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="301"/>
-      <c r="C47" s="301"/>
-      <c r="D47" s="301"/>
-      <c r="E47" s="301"/>
-      <c r="F47" s="301"/>
-      <c r="G47" s="301"/>
-      <c r="H47" s="301"/>
-      <c r="I47" s="300" t="e">
+      <c r="B47" s="462"/>
+      <c r="C47" s="462"/>
+      <c r="D47" s="462"/>
+      <c r="E47" s="462"/>
+      <c r="F47" s="462"/>
+      <c r="G47" s="462"/>
+      <c r="H47" s="462"/>
+      <c r="I47" s="483" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J47" s="301"/>
-      <c r="K47" s="301"/>
-      <c r="L47" s="301"/>
-      <c r="M47" s="302"/>
+      <c r="J47" s="462"/>
+      <c r="K47" s="462"/>
+      <c r="L47" s="462"/>
+      <c r="M47" s="484"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -42269,24 +42263,24 @@
       <c r="AQ47" s="96"/>
     </row>
     <row r="48" spans="1:46" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="299" t="s">
+      <c r="A48" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="292"/>
-      <c r="C48" s="292"/>
-      <c r="D48" s="292"/>
-      <c r="E48" s="292"/>
-      <c r="F48" s="292"/>
-      <c r="G48" s="292"/>
-      <c r="H48" s="292"/>
-      <c r="I48" s="291" t="e">
+      <c r="B48" s="291"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="291"/>
+      <c r="E48" s="291"/>
+      <c r="F48" s="291"/>
+      <c r="G48" s="291"/>
+      <c r="H48" s="291"/>
+      <c r="I48" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="292"/>
-      <c r="K48" s="292"/>
-      <c r="L48" s="292"/>
-      <c r="M48" s="293"/>
+      <c r="J48" s="291"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="291"/>
+      <c r="M48" s="292"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -42319,24 +42313,24 @@
       <c r="AQ48" s="96"/>
     </row>
     <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="299" t="s">
+      <c r="A49" s="293" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="292"/>
-      <c r="C49" s="292"/>
-      <c r="D49" s="292"/>
-      <c r="E49" s="292"/>
-      <c r="F49" s="292"/>
-      <c r="G49" s="292"/>
-      <c r="H49" s="292"/>
-      <c r="I49" s="291" t="e">
+      <c r="B49" s="291"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="291"/>
+      <c r="G49" s="291"/>
+      <c r="H49" s="291"/>
+      <c r="I49" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="292"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="292"/>
-      <c r="M49" s="293"/>
+      <c r="J49" s="291"/>
+      <c r="K49" s="291"/>
+      <c r="L49" s="291"/>
+      <c r="M49" s="292"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -42369,24 +42363,24 @@
       <c r="AQ49" s="96"/>
     </row>
     <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="299" t="s">
+      <c r="A50" s="293" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="292"/>
-      <c r="C50" s="292"/>
-      <c r="D50" s="292"/>
-      <c r="E50" s="292"/>
-      <c r="F50" s="292"/>
-      <c r="G50" s="292"/>
-      <c r="H50" s="292"/>
-      <c r="I50" s="291" t="e">
+      <c r="B50" s="291"/>
+      <c r="C50" s="291"/>
+      <c r="D50" s="291"/>
+      <c r="E50" s="291"/>
+      <c r="F50" s="291"/>
+      <c r="G50" s="291"/>
+      <c r="H50" s="291"/>
+      <c r="I50" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="292"/>
-      <c r="K50" s="292"/>
-      <c r="L50" s="292"/>
-      <c r="M50" s="293"/>
+      <c r="J50" s="291"/>
+      <c r="K50" s="291"/>
+      <c r="L50" s="291"/>
+      <c r="M50" s="292"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -42419,24 +42413,24 @@
       <c r="AQ50" s="96"/>
     </row>
     <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="299" t="s">
+      <c r="A51" s="293" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="292"/>
-      <c r="C51" s="292"/>
-      <c r="D51" s="292"/>
-      <c r="E51" s="292"/>
-      <c r="F51" s="292"/>
-      <c r="G51" s="292"/>
-      <c r="H51" s="292"/>
-      <c r="I51" s="291" t="e">
+      <c r="B51" s="291"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="291"/>
+      <c r="G51" s="291"/>
+      <c r="H51" s="291"/>
+      <c r="I51" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="292"/>
-      <c r="K51" s="292"/>
-      <c r="L51" s="292"/>
-      <c r="M51" s="293"/>
+      <c r="J51" s="291"/>
+      <c r="K51" s="291"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="292"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -42469,24 +42463,24 @@
       <c r="AQ51" s="96"/>
     </row>
     <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="299" t="s">
+      <c r="A52" s="293" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="292"/>
-      <c r="C52" s="292"/>
-      <c r="D52" s="292"/>
-      <c r="E52" s="292"/>
-      <c r="F52" s="292"/>
-      <c r="G52" s="292"/>
-      <c r="H52" s="292"/>
-      <c r="I52" s="291" t="e">
+      <c r="B52" s="291"/>
+      <c r="C52" s="291"/>
+      <c r="D52" s="291"/>
+      <c r="E52" s="291"/>
+      <c r="F52" s="291"/>
+      <c r="G52" s="291"/>
+      <c r="H52" s="291"/>
+      <c r="I52" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J52" s="292"/>
-      <c r="K52" s="292"/>
-      <c r="L52" s="292"/>
-      <c r="M52" s="293"/>
+      <c r="J52" s="291"/>
+      <c r="K52" s="291"/>
+      <c r="L52" s="291"/>
+      <c r="M52" s="292"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -42519,24 +42513,24 @@
       <c r="AQ52" s="96"/>
     </row>
     <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="299" t="s">
+      <c r="A53" s="293" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="292"/>
-      <c r="C53" s="292"/>
-      <c r="D53" s="292"/>
-      <c r="E53" s="292"/>
-      <c r="F53" s="292"/>
-      <c r="G53" s="292"/>
-      <c r="H53" s="292"/>
-      <c r="I53" s="291" t="e">
+      <c r="B53" s="291"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="291"/>
+      <c r="E53" s="291"/>
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="291"/>
+      <c r="I53" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J53" s="292"/>
-      <c r="K53" s="292"/>
-      <c r="L53" s="292"/>
-      <c r="M53" s="293"/>
+      <c r="J53" s="291"/>
+      <c r="K53" s="291"/>
+      <c r="L53" s="291"/>
+      <c r="M53" s="292"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -42569,24 +42563,24 @@
       <c r="AQ53" s="96"/>
     </row>
     <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="299" t="s">
+      <c r="A54" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="292"/>
-      <c r="C54" s="292"/>
-      <c r="D54" s="292"/>
-      <c r="E54" s="292"/>
-      <c r="F54" s="292"/>
-      <c r="G54" s="292"/>
-      <c r="H54" s="292"/>
-      <c r="I54" s="291" t="e">
+      <c r="B54" s="291"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="291"/>
+      <c r="E54" s="291"/>
+      <c r="F54" s="291"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="291"/>
+      <c r="I54" s="290" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J54" s="292"/>
-      <c r="K54" s="292"/>
-      <c r="L54" s="292"/>
-      <c r="M54" s="293"/>
+      <c r="J54" s="291"/>
+      <c r="K54" s="291"/>
+      <c r="L54" s="291"/>
+      <c r="M54" s="292"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -42619,19 +42613,19 @@
       <c r="AQ54" s="96"/>
     </row>
     <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="299"/>
-      <c r="B55" s="292"/>
-      <c r="C55" s="292"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="291"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="292"/>
-      <c r="M55" s="293"/>
+      <c r="A55" s="293"/>
+      <c r="B55" s="291"/>
+      <c r="C55" s="291"/>
+      <c r="D55" s="291"/>
+      <c r="E55" s="291"/>
+      <c r="F55" s="291"/>
+      <c r="G55" s="291"/>
+      <c r="H55" s="291"/>
+      <c r="I55" s="290"/>
+      <c r="J55" s="291"/>
+      <c r="K55" s="291"/>
+      <c r="L55" s="291"/>
+      <c r="M55" s="292"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -42709,22 +42703,22 @@
       <c r="AQ56" s="96"/>
     </row>
     <row r="57" spans="1:43" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="298" t="e">
+      <c r="A57" s="482" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B57" s="296"/>
-      <c r="C57" s="296"/>
-      <c r="D57" s="296"/>
-      <c r="E57" s="296"/>
-      <c r="F57" s="296"/>
-      <c r="G57" s="296"/>
-      <c r="H57" s="296"/>
-      <c r="I57" s="296"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="296"/>
-      <c r="L57" s="296"/>
-      <c r="M57" s="297"/>
+      <c r="B57" s="480"/>
+      <c r="C57" s="480"/>
+      <c r="D57" s="480"/>
+      <c r="E57" s="480"/>
+      <c r="F57" s="480"/>
+      <c r="G57" s="480"/>
+      <c r="H57" s="480"/>
+      <c r="I57" s="480"/>
+      <c r="J57" s="480"/>
+      <c r="K57" s="480"/>
+      <c r="L57" s="480"/>
+      <c r="M57" s="481"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -42757,19 +42751,19 @@
       <c r="AQ57" s="96"/>
     </row>
     <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="299"/>
-      <c r="B58" s="292"/>
-      <c r="C58" s="292"/>
-      <c r="D58" s="292"/>
-      <c r="E58" s="292"/>
-      <c r="F58" s="292"/>
-      <c r="G58" s="292"/>
-      <c r="H58" s="292"/>
-      <c r="I58" s="292"/>
-      <c r="J58" s="292"/>
-      <c r="K58" s="292"/>
-      <c r="L58" s="292"/>
-      <c r="M58" s="293"/>
+      <c r="A58" s="293"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="291"/>
+      <c r="E58" s="291"/>
+      <c r="F58" s="291"/>
+      <c r="G58" s="291"/>
+      <c r="H58" s="291"/>
+      <c r="I58" s="291"/>
+      <c r="J58" s="291"/>
+      <c r="K58" s="291"/>
+      <c r="L58" s="291"/>
+      <c r="M58" s="292"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -42802,122 +42796,122 @@
       <c r="AQ58" s="96"/>
     </row>
     <row r="59" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="294" t="e">
+      <c r="A59" s="478" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B59" s="295"/>
-      <c r="C59" s="295"/>
-      <c r="D59" s="295"/>
-      <c r="E59" s="295"/>
-      <c r="F59" s="295"/>
-      <c r="G59" s="295"/>
-      <c r="H59" s="295"/>
-      <c r="I59" s="296" t="e">
+      <c r="B59" s="479"/>
+      <c r="C59" s="479"/>
+      <c r="D59" s="479"/>
+      <c r="E59" s="479"/>
+      <c r="F59" s="479"/>
+      <c r="G59" s="479"/>
+      <c r="H59" s="479"/>
+      <c r="I59" s="480" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="296"/>
-      <c r="M59" s="297"/>
-      <c r="N59" s="316" t="s">
+      <c r="J59" s="480"/>
+      <c r="K59" s="480"/>
+      <c r="L59" s="480"/>
+      <c r="M59" s="481"/>
+      <c r="N59" s="464" t="s">
         <v>147</v>
       </c>
-      <c r="O59" s="317"/>
-      <c r="P59" s="317"/>
-      <c r="Q59" s="317"/>
-      <c r="R59" s="317"/>
-      <c r="S59" s="317"/>
-      <c r="T59" s="317"/>
-      <c r="U59" s="317"/>
-      <c r="V59" s="317"/>
-      <c r="W59" s="317"/>
-      <c r="X59" s="317"/>
-      <c r="Y59" s="317"/>
-      <c r="Z59" s="317"/>
-      <c r="AA59" s="317"/>
-      <c r="AB59" s="317"/>
-      <c r="AC59" s="317"/>
-      <c r="AD59" s="317"/>
-      <c r="AE59" s="317"/>
-      <c r="AF59" s="317"/>
-      <c r="AG59" s="317"/>
-      <c r="AH59" s="317"/>
-      <c r="AI59" s="317"/>
-      <c r="AJ59" s="317"/>
-      <c r="AK59" s="317"/>
-      <c r="AL59" s="317"/>
-      <c r="AM59" s="317"/>
-      <c r="AN59" s="317"/>
-      <c r="AO59" s="317"/>
-      <c r="AP59" s="318"/>
+      <c r="O59" s="311"/>
+      <c r="P59" s="311"/>
+      <c r="Q59" s="311"/>
+      <c r="R59" s="311"/>
+      <c r="S59" s="311"/>
+      <c r="T59" s="311"/>
+      <c r="U59" s="311"/>
+      <c r="V59" s="311"/>
+      <c r="W59" s="311"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="311"/>
+      <c r="Z59" s="311"/>
+      <c r="AA59" s="311"/>
+      <c r="AB59" s="311"/>
+      <c r="AC59" s="311"/>
+      <c r="AD59" s="311"/>
+      <c r="AE59" s="311"/>
+      <c r="AF59" s="311"/>
+      <c r="AG59" s="311"/>
+      <c r="AH59" s="311"/>
+      <c r="AI59" s="311"/>
+      <c r="AJ59" s="311"/>
+      <c r="AK59" s="311"/>
+      <c r="AL59" s="311"/>
+      <c r="AM59" s="311"/>
+      <c r="AN59" s="311"/>
+      <c r="AO59" s="311"/>
+      <c r="AP59" s="465"/>
       <c r="AQ59" s="96"/>
     </row>
     <row r="60" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="319" t="s">
+      <c r="A60" s="466" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="307"/>
-      <c r="C60" s="307"/>
-      <c r="D60" s="307"/>
-      <c r="E60" s="307"/>
-      <c r="F60" s="307"/>
-      <c r="G60" s="307"/>
-      <c r="H60" s="307"/>
-      <c r="I60" s="307"/>
-      <c r="J60" s="307"/>
-      <c r="K60" s="307"/>
-      <c r="L60" s="307"/>
-      <c r="M60" s="320"/>
-      <c r="N60" s="316" t="e">
+      <c r="B60" s="358"/>
+      <c r="C60" s="358"/>
+      <c r="D60" s="358"/>
+      <c r="E60" s="358"/>
+      <c r="F60" s="358"/>
+      <c r="G60" s="358"/>
+      <c r="H60" s="358"/>
+      <c r="I60" s="358"/>
+      <c r="J60" s="358"/>
+      <c r="K60" s="358"/>
+      <c r="L60" s="358"/>
+      <c r="M60" s="467"/>
+      <c r="N60" s="464" t="e">
         <f>Q33+J31+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O60" s="317"/>
-      <c r="P60" s="317"/>
-      <c r="Q60" s="317"/>
-      <c r="R60" s="317"/>
-      <c r="S60" s="317"/>
-      <c r="T60" s="317"/>
-      <c r="U60" s="317"/>
-      <c r="V60" s="317"/>
-      <c r="W60" s="317"/>
-      <c r="X60" s="317"/>
-      <c r="Y60" s="317"/>
-      <c r="Z60" s="317"/>
-      <c r="AA60" s="317"/>
-      <c r="AB60" s="317"/>
-      <c r="AC60" s="317"/>
-      <c r="AD60" s="317"/>
-      <c r="AE60" s="317"/>
-      <c r="AF60" s="317"/>
-      <c r="AG60" s="317"/>
-      <c r="AH60" s="317"/>
-      <c r="AI60" s="317"/>
-      <c r="AJ60" s="317"/>
-      <c r="AK60" s="317"/>
-      <c r="AL60" s="317"/>
-      <c r="AM60" s="317"/>
-      <c r="AN60" s="317"/>
-      <c r="AO60" s="317"/>
-      <c r="AP60" s="318"/>
+      <c r="O60" s="311"/>
+      <c r="P60" s="311"/>
+      <c r="Q60" s="311"/>
+      <c r="R60" s="311"/>
+      <c r="S60" s="311"/>
+      <c r="T60" s="311"/>
+      <c r="U60" s="311"/>
+      <c r="V60" s="311"/>
+      <c r="W60" s="311"/>
+      <c r="X60" s="311"/>
+      <c r="Y60" s="311"/>
+      <c r="Z60" s="311"/>
+      <c r="AA60" s="311"/>
+      <c r="AB60" s="311"/>
+      <c r="AC60" s="311"/>
+      <c r="AD60" s="311"/>
+      <c r="AE60" s="311"/>
+      <c r="AF60" s="311"/>
+      <c r="AG60" s="311"/>
+      <c r="AH60" s="311"/>
+      <c r="AI60" s="311"/>
+      <c r="AJ60" s="311"/>
+      <c r="AK60" s="311"/>
+      <c r="AL60" s="311"/>
+      <c r="AM60" s="311"/>
+      <c r="AN60" s="311"/>
+      <c r="AO60" s="311"/>
+      <c r="AP60" s="465"/>
       <c r="AQ60" s="96"/>
     </row>
     <row r="61" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="306"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="307"/>
-      <c r="D61" s="307"/>
-      <c r="E61" s="307"/>
-      <c r="F61" s="307"/>
-      <c r="G61" s="307"/>
-      <c r="H61" s="307"/>
-      <c r="I61" s="308"/>
-      <c r="J61" s="308"/>
-      <c r="K61" s="308"/>
-      <c r="L61" s="308"/>
-      <c r="M61" s="309"/>
+      <c r="A61" s="469"/>
+      <c r="B61" s="358"/>
+      <c r="C61" s="358"/>
+      <c r="D61" s="358"/>
+      <c r="E61" s="358"/>
+      <c r="F61" s="358"/>
+      <c r="G61" s="358"/>
+      <c r="H61" s="358"/>
+      <c r="I61" s="470"/>
+      <c r="J61" s="470"/>
+      <c r="K61" s="470"/>
+      <c r="L61" s="470"/>
+      <c r="M61" s="471"/>
       <c r="N61" s="5"/>
       <c r="O61" s="199"/>
       <c r="P61" s="5"/>
@@ -42950,24 +42944,24 @@
       <c r="AQ61" s="96"/>
     </row>
     <row r="62" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="306" t="s">
+      <c r="A62" s="469" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="307"/>
-      <c r="C62" s="307"/>
-      <c r="D62" s="307"/>
-      <c r="E62" s="307"/>
-      <c r="F62" s="307"/>
-      <c r="G62" s="307"/>
-      <c r="H62" s="307"/>
-      <c r="I62" s="308" t="e">
+      <c r="B62" s="358"/>
+      <c r="C62" s="358"/>
+      <c r="D62" s="358"/>
+      <c r="E62" s="358"/>
+      <c r="F62" s="358"/>
+      <c r="G62" s="358"/>
+      <c r="H62" s="358"/>
+      <c r="I62" s="470" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J62" s="308"/>
-      <c r="K62" s="308"/>
-      <c r="L62" s="308"/>
-      <c r="M62" s="309"/>
+      <c r="J62" s="470"/>
+      <c r="K62" s="470"/>
+      <c r="L62" s="470"/>
+      <c r="M62" s="471"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -43000,24 +42994,24 @@
       <c r="AQ62" s="96"/>
     </row>
     <row r="63" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="306" t="s">
+      <c r="A63" s="469" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="307"/>
-      <c r="C63" s="307"/>
-      <c r="D63" s="307"/>
-      <c r="E63" s="307"/>
-      <c r="F63" s="307"/>
-      <c r="G63" s="307"/>
-      <c r="H63" s="307"/>
-      <c r="I63" s="308" t="e">
+      <c r="B63" s="358"/>
+      <c r="C63" s="358"/>
+      <c r="D63" s="358"/>
+      <c r="E63" s="358"/>
+      <c r="F63" s="358"/>
+      <c r="G63" s="358"/>
+      <c r="H63" s="358"/>
+      <c r="I63" s="470" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J63" s="308"/>
-      <c r="K63" s="308"/>
-      <c r="L63" s="308"/>
-      <c r="M63" s="309"/>
+      <c r="J63" s="470"/>
+      <c r="K63" s="470"/>
+      <c r="L63" s="470"/>
+      <c r="M63" s="471"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -43050,57 +43044,299 @@
       <c r="AQ63" s="96"/>
     </row>
     <row r="64" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="304" t="s">
+      <c r="A64" s="474" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="305"/>
-      <c r="C64" s="305"/>
-      <c r="D64" s="305"/>
-      <c r="E64" s="305"/>
-      <c r="F64" s="305"/>
-      <c r="G64" s="305"/>
-      <c r="H64" s="305"/>
-      <c r="I64" s="310" t="e">
+      <c r="B64" s="475"/>
+      <c r="C64" s="475"/>
+      <c r="D64" s="475"/>
+      <c r="E64" s="475"/>
+      <c r="F64" s="475"/>
+      <c r="G64" s="475"/>
+      <c r="H64" s="475"/>
+      <c r="I64" s="476" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J64" s="310"/>
-      <c r="K64" s="310"/>
-      <c r="L64" s="310"/>
-      <c r="M64" s="311"/>
-      <c r="N64" s="290"/>
-      <c r="O64" s="290"/>
-      <c r="P64" s="290"/>
-      <c r="Q64" s="290"/>
-      <c r="R64" s="290"/>
-      <c r="S64" s="290"/>
-      <c r="T64" s="290"/>
-      <c r="U64" s="290"/>
-      <c r="V64" s="290"/>
-      <c r="W64" s="290"/>
-      <c r="X64" s="290"/>
-      <c r="Y64" s="290"/>
-      <c r="Z64" s="290"/>
-      <c r="AA64" s="290"/>
-      <c r="AB64" s="290"/>
-      <c r="AC64" s="290"/>
-      <c r="AD64" s="290"/>
-      <c r="AE64" s="290"/>
-      <c r="AF64" s="290"/>
-      <c r="AG64" s="290"/>
-      <c r="AH64" s="290"/>
-      <c r="AI64" s="290"/>
-      <c r="AJ64" s="290"/>
-      <c r="AK64" s="290"/>
-      <c r="AL64" s="290"/>
-      <c r="AM64" s="290"/>
-      <c r="AN64" s="290"/>
-      <c r="AO64" s="290"/>
-      <c r="AP64" s="303"/>
+      <c r="J64" s="476"/>
+      <c r="K64" s="476"/>
+      <c r="L64" s="476"/>
+      <c r="M64" s="477"/>
+      <c r="N64" s="472"/>
+      <c r="O64" s="472"/>
+      <c r="P64" s="472"/>
+      <c r="Q64" s="472"/>
+      <c r="R64" s="472"/>
+      <c r="S64" s="472"/>
+      <c r="T64" s="472"/>
+      <c r="U64" s="472"/>
+      <c r="V64" s="472"/>
+      <c r="W64" s="472"/>
+      <c r="X64" s="472"/>
+      <c r="Y64" s="472"/>
+      <c r="Z64" s="472"/>
+      <c r="AA64" s="472"/>
+      <c r="AB64" s="472"/>
+      <c r="AC64" s="472"/>
+      <c r="AD64" s="472"/>
+      <c r="AE64" s="472"/>
+      <c r="AF64" s="472"/>
+      <c r="AG64" s="472"/>
+      <c r="AH64" s="472"/>
+      <c r="AI64" s="472"/>
+      <c r="AJ64" s="472"/>
+      <c r="AK64" s="472"/>
+      <c r="AL64" s="472"/>
+      <c r="AM64" s="472"/>
+      <c r="AN64" s="472"/>
+      <c r="AO64" s="472"/>
+      <c r="AP64" s="473"/>
       <c r="AQ64" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="266">
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="N64:AP64"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="N59:AP59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="N60:AP60"/>
+    <mergeCell ref="A45:AP45"/>
+    <mergeCell ref="N46:AP46"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="F43:K44"/>
+    <mergeCell ref="L43:R44"/>
+    <mergeCell ref="S43:Z44"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="AI43:AN44"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="AB36:AG38"/>
+    <mergeCell ref="AH36:AI38"/>
+    <mergeCell ref="AJ36:AP38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AA43:AF44"/>
+    <mergeCell ref="AG43:AH44"/>
+    <mergeCell ref="A40:S41"/>
+    <mergeCell ref="T40:AG41"/>
+    <mergeCell ref="AH40:AI41"/>
+    <mergeCell ref="AJ40:AP41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AO43:AP44"/>
+    <mergeCell ref="A34:AP34"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="T35:AA35"/>
+    <mergeCell ref="AB35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AP35"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A39:S39"/>
+    <mergeCell ref="T39:AG39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AJ39:AP39"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:Y33"/>
+    <mergeCell ref="A36:S38"/>
+    <mergeCell ref="T36:X38"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="A29:AP29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="AI30:AP30"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="AI31:AP31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="AI32:AP32"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:Y31"/>
+    <mergeCell ref="AI33:AP33"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="A17:AP17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:P19"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="AA18:AD19"/>
+    <mergeCell ref="AE18:AH19"/>
+    <mergeCell ref="AI18:AL18"/>
+    <mergeCell ref="AM18:AP19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AI15:AP15"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="P16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AI16:AP16"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="P15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="A12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AI12:AP12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AI13:AP13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AI14:AP14"/>
+    <mergeCell ref="O8:AC8"/>
+    <mergeCell ref="AD8:AJ8"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="A10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="A11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AI11:AP11"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
     <mergeCell ref="I54:M54"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="A54:H54"/>
@@ -43125,248 +43361,6 @@
     <mergeCell ref="AK7:AP7"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:AC8"/>
-    <mergeCell ref="AD8:AJ8"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="A10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="A11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AI11:AP11"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="A12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AI12:AP12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AI13:AP13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AI14:AP14"/>
-    <mergeCell ref="AI15:AP15"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="P16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AI16:AP16"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="P15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="A17:AP17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:P19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="W18:Z19"/>
-    <mergeCell ref="AA18:AD19"/>
-    <mergeCell ref="AE18:AH19"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AM18:AP19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="A29:AP29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
-    <mergeCell ref="AI30:AP30"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="AI31:AP31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
-    <mergeCell ref="AI32:AP32"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:Y31"/>
-    <mergeCell ref="AI33:AP33"/>
-    <mergeCell ref="A34:AP34"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="T35:AA35"/>
-    <mergeCell ref="AB35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AJ35:AP35"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A39:S39"/>
-    <mergeCell ref="T39:AG39"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AJ39:AP39"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:Y33"/>
-    <mergeCell ref="A36:S38"/>
-    <mergeCell ref="T36:X38"/>
-    <mergeCell ref="Y36:Z37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="AB36:AG38"/>
-    <mergeCell ref="AH36:AI38"/>
-    <mergeCell ref="AJ36:AP38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AA43:AF44"/>
-    <mergeCell ref="AG43:AH44"/>
-    <mergeCell ref="A40:S41"/>
-    <mergeCell ref="T40:AG41"/>
-    <mergeCell ref="AH40:AI41"/>
-    <mergeCell ref="AJ40:AP41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A43:E44"/>
-    <mergeCell ref="F43:K44"/>
-    <mergeCell ref="L43:R44"/>
-    <mergeCell ref="S43:Z44"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="AI43:AN44"/>
-    <mergeCell ref="AO43:AP44"/>
-    <mergeCell ref="N59:AP59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="N60:AP60"/>
-    <mergeCell ref="A45:AP45"/>
-    <mergeCell ref="N46:AP46"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="N64:AP64"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I49:M49"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.23" right="0.17" top="0.98425196850393704" bottom="0.37" header="0.51181102362204722" footer="0.26"/>
